--- a/data/adc_2019_v4.xlsx
+++ b/data/adc_2019_v4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="835">
   <si>
     <t>control_number</t>
   </si>
@@ -59,6 +59,24 @@
     <t>abstract_body</t>
   </si>
   <si>
+    <t>keyword1</t>
+  </si>
+  <si>
+    <t>keyword2</t>
+  </si>
+  <si>
+    <t>keyword3</t>
+  </si>
+  <si>
+    <t>keyword4</t>
+  </si>
+  <si>
+    <t>primary_organ</t>
+  </si>
+  <si>
+    <t>author_block</t>
+  </si>
+  <si>
     <t>4029</t>
   </si>
   <si>
@@ -1755,6 +1773,750 @@
   </si>
   <si>
     <t>&lt;em&gt;under embargo&lt;/em&gt;</t>
+  </si>
+  <si>
+    <t>Immunohistochemistry</t>
+  </si>
+  <si>
+    <t>Proteomics</t>
+  </si>
+  <si>
+    <t>Antibody-drug conjugate (ADC)</t>
+  </si>
+  <si>
+    <t>Cancer therapy</t>
+  </si>
+  <si>
+    <t>Antibody</t>
+  </si>
+  <si>
+    <t>Acute myeloid leukemia</t>
+  </si>
+  <si>
+    <t>Breast cancer</t>
+  </si>
+  <si>
+    <t>Drug delivery</t>
+  </si>
+  <si>
+    <t>Immune response</t>
+  </si>
+  <si>
+    <t>Anticancer therapy</t>
+  </si>
+  <si>
+    <t>DNA double-strand break</t>
+  </si>
+  <si>
+    <t>DNA-PK</t>
+  </si>
+  <si>
+    <t>Immunotherapy</t>
+  </si>
+  <si>
+    <t>Drug design</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Lymphoma: non-Hodgkin's lymphoma</t>
+  </si>
+  <si>
+    <t>Gastrointestinal cancers: stomach</t>
+  </si>
+  <si>
+    <t>Cholangiocarcinoma</t>
+  </si>
+  <si>
+    <t>Brain metastasis</t>
+  </si>
+  <si>
+    <t>Pyrrolobenzodiazepines</t>
+  </si>
+  <si>
+    <t>Organoids</t>
+  </si>
+  <si>
+    <t>Uveal melanoma</t>
+  </si>
+  <si>
+    <t>Phase I</t>
+  </si>
+  <si>
+    <t>Trop-2</t>
+  </si>
+  <si>
+    <t>Merkel cell carcinoma</t>
+  </si>
+  <si>
+    <t>Immuno-oncology</t>
+  </si>
+  <si>
+    <t>Neuroblastoma</t>
+  </si>
+  <si>
+    <t>Endometrial cancer</t>
+  </si>
+  <si>
+    <t>Mesothelioma</t>
+  </si>
+  <si>
+    <t>Folate receptor</t>
+  </si>
+  <si>
+    <t>Checkpoint</t>
+  </si>
+  <si>
+    <t>EphA2</t>
+  </si>
+  <si>
+    <t>Monoclonal antibodies</t>
+  </si>
+  <si>
+    <t>ErbB3</t>
+  </si>
+  <si>
+    <t>Multiple myeloma</t>
+  </si>
+  <si>
+    <t>Ovarian cancer</t>
+  </si>
+  <si>
+    <t>MET-ADC</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>Chemokine receptor</t>
+  </si>
+  <si>
+    <t>Molecular imaging</t>
+  </si>
+  <si>
+    <t>c-Met</t>
+  </si>
+  <si>
+    <t>pcadherin</t>
+  </si>
+  <si>
+    <t>KSP</t>
+  </si>
+  <si>
+    <t>EpCAM-targeting Probody™ drug conjugate</t>
+  </si>
+  <si>
+    <t>Wide therapeutic window</t>
+  </si>
+  <si>
+    <t>Cytotoxicity</t>
+  </si>
+  <si>
+    <t>Combination therapy</t>
+  </si>
+  <si>
+    <t>Mass spectrometry</t>
+  </si>
+  <si>
+    <t>DNA adducts</t>
+  </si>
+  <si>
+    <t>Leukemias</t>
+  </si>
+  <si>
+    <t>Fibroblast growth factor receptor 3  (FGFR-3)</t>
+  </si>
+  <si>
+    <t>Peptides</t>
+  </si>
+  <si>
+    <t>Acute lymphoblastic leukemia</t>
+  </si>
+  <si>
+    <t>Drug conjugate</t>
+  </si>
+  <si>
+    <t>Antibody engineering</t>
+  </si>
+  <si>
+    <t>Efficacy</t>
+  </si>
+  <si>
+    <t>Therapeutic target</t>
+  </si>
+  <si>
+    <t>HER2-positive breast cancer</t>
+  </si>
+  <si>
+    <t>Globo H</t>
+  </si>
+  <si>
+    <t>Amanitin</t>
+  </si>
+  <si>
+    <t>Patient-derived xenograft (PDX)</t>
+  </si>
+  <si>
+    <t>Glyco-Epitope</t>
+  </si>
+  <si>
+    <t>Toxicity</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics</t>
+  </si>
+  <si>
+    <t>Immune checkpoint blockade</t>
+  </si>
+  <si>
+    <t>Dendritic cells</t>
+  </si>
+  <si>
+    <t>Patient-derived xenograft (PDX) models</t>
+  </si>
+  <si>
+    <t>Immunogenic cell death</t>
+  </si>
+  <si>
+    <t>drug-antibody ratio</t>
+  </si>
+  <si>
+    <t>Lung cancer: non-small cell</t>
+  </si>
+  <si>
+    <t>Drug discovery</t>
+  </si>
+  <si>
+    <t>Assay development</t>
+  </si>
+  <si>
+    <t>Metabolism</t>
+  </si>
+  <si>
+    <t>Targeted drug delivery</t>
+  </si>
+  <si>
+    <t>Solid tumors</t>
+  </si>
+  <si>
+    <t>Non-Hodgkin's lymphoma</t>
+  </si>
+  <si>
+    <t>Lysosome</t>
+  </si>
+  <si>
+    <t>Antibody drug conjugate</t>
+  </si>
+  <si>
+    <t>ASCL1</t>
+  </si>
+  <si>
+    <t>Drug sensitivity</t>
+  </si>
+  <si>
+    <t>Kinesin</t>
+  </si>
+  <si>
+    <t>Photoimmunotherapy</t>
+  </si>
+  <si>
+    <t>resistance</t>
+  </si>
+  <si>
+    <t>Chemotherapy</t>
+  </si>
+  <si>
+    <t>Legumain</t>
+  </si>
+  <si>
+    <t>Targeted alpha therapy</t>
+  </si>
+  <si>
+    <t>Solid Tumors Treatment</t>
+  </si>
+  <si>
+    <t>Payload</t>
+  </si>
+  <si>
+    <t>DNA alkylator</t>
+  </si>
+  <si>
+    <t>Alkylating agents</t>
+  </si>
+  <si>
+    <t>Lymphoma</t>
+  </si>
+  <si>
+    <t>Bladder cancer</t>
+  </si>
+  <si>
+    <t>Cathepsin B</t>
+  </si>
+  <si>
+    <t>Trastuzumab</t>
+  </si>
+  <si>
+    <t>DARPin®</t>
+  </si>
+  <si>
+    <t>Biodistribution</t>
+  </si>
+  <si>
+    <t>gold nanoparticle</t>
+  </si>
+  <si>
+    <t>Glypican-1</t>
+  </si>
+  <si>
+    <t>neratinib</t>
+  </si>
+  <si>
+    <t>MMAE</t>
+  </si>
+  <si>
+    <t>Glioblastoma</t>
+  </si>
+  <si>
+    <t>Gastrointestinal cancers: colorectal</t>
+  </si>
+  <si>
+    <t>Cancer stem cell</t>
+  </si>
+  <si>
+    <t>Animal models</t>
+  </si>
+  <si>
+    <t>Microtubule-interfering agents</t>
+  </si>
+  <si>
+    <t>PD-1</t>
+  </si>
+  <si>
+    <t>TLR</t>
+  </si>
+  <si>
+    <t>Spheroids</t>
+  </si>
+  <si>
+    <t>Bystander effect</t>
+  </si>
+  <si>
+    <t>Gal-3 BP</t>
+  </si>
+  <si>
+    <t>Transporters</t>
+  </si>
+  <si>
+    <t>Targeted therapy</t>
+  </si>
+  <si>
+    <t>Drug Conjugate</t>
+  </si>
+  <si>
+    <t>Combination studies</t>
+  </si>
+  <si>
+    <t>DM21</t>
+  </si>
+  <si>
+    <t>Gene expression analysis</t>
+  </si>
+  <si>
+    <t>Tumor microenvironment</t>
+  </si>
+  <si>
+    <t>Topoisomerase I inhibitor</t>
+  </si>
+  <si>
+    <t>Autophagy</t>
+  </si>
+  <si>
+    <t>Dose escalation</t>
+  </si>
+  <si>
+    <t>Surgical resection</t>
+  </si>
+  <si>
+    <t>Gastric and pancreatic cancer</t>
+  </si>
+  <si>
+    <t>Preclinical</t>
+  </si>
+  <si>
+    <t>TROP-2</t>
+  </si>
+  <si>
+    <t>In vivo</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Catabolite Identification</t>
+  </si>
+  <si>
+    <t>Mylotarg</t>
+  </si>
+  <si>
+    <t>Internalization</t>
+  </si>
+  <si>
+    <t>Tumor antigen</t>
+  </si>
+  <si>
+    <t>Pediatric cancers</t>
+  </si>
+  <si>
+    <t>DGN549</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Cisplatin resistance</t>
+  </si>
+  <si>
+    <t>chromosom 17p deletion</t>
+  </si>
+  <si>
+    <t>Folate-pro-PBD drug conjugate</t>
+  </si>
+  <si>
+    <t>Maytansinoid</t>
+  </si>
+  <si>
+    <t>PD-L1</t>
+  </si>
+  <si>
+    <t>Imaging</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Image analysis</t>
+  </si>
+  <si>
+    <t>ADCC</t>
+  </si>
+  <si>
+    <t>Fluorescence imaging</t>
+  </si>
+  <si>
+    <t>Tissue factor</t>
+  </si>
+  <si>
+    <t>metastasis</t>
+  </si>
+  <si>
+    <t>Drug resistance</t>
+  </si>
+  <si>
+    <t>Tumor targeting</t>
+  </si>
+  <si>
+    <t>Therapeutics</t>
+  </si>
+  <si>
+    <t>maytansine</t>
+  </si>
+  <si>
+    <t>Analytical Validation</t>
+  </si>
+  <si>
+    <t>Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Lung cancer: small cell</t>
+  </si>
+  <si>
+    <t>Leukemias: acute myeloid</t>
+  </si>
+  <si>
+    <t>Pancreatic cancer</t>
+  </si>
+  <si>
+    <t>Carcinoma: squamous cell</t>
+  </si>
+  <si>
+    <t>Leukemias: chronic lymphocytic</t>
+  </si>
+  <si>
+    <t>Genitourinary cancers: bladder</t>
+  </si>
+  <si>
+    <t>Leukemias: acute lymphoblastic</t>
+  </si>
+  <si>
+    <t>Gynecological cancers: ovarian</t>
+  </si>
+  <si>
+    <t>Gastrointestinal cancers: other</t>
+  </si>
+  <si>
+    <t>Brain/central nervous system cancers</t>
+  </si>
+  <si>
+    <t>Melanoma/skin cancers</t>
+  </si>
+  <si>
+    <t>Carcinoma: adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Gynecological cancers: other</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Megumi Furuta&lt;sup&gt;1&lt;/sup&gt;, Jun Sakakibara-Konishi&lt;sup&gt;1&lt;/sup&gt;, Hajime Kikuchi&lt;sup&gt;2&lt;/sup&gt;, Hiroshi Yokouchi&lt;sup&gt;3&lt;/sup&gt;, Hiroshi Nishihara&lt;sup&gt;4&lt;/sup&gt;, Hiroyuki Minemura&lt;sup&gt;5&lt;/sup&gt;, Masao Harada&lt;sup&gt;3&lt;/sup&gt;, Shigeo Yamazaki&lt;sup&gt;6&lt;/sup&gt;, Kenji Akie&lt;sup&gt;7&lt;/sup&gt;, Yuka Fujita&lt;sup&gt;8&lt;/sup&gt;, Kei Takamura&lt;sup&gt;2&lt;/sup&gt;, Tetsuya Kojima&lt;sup&gt;9&lt;/sup&gt;, Toshiyuki Harada&lt;sup&gt;10&lt;/sup&gt;, Yoshinori Minami&lt;sup&gt;11&lt;/sup&gt;, Naomi Watanabe&lt;sup&gt;12&lt;/sup&gt;, Satoshi Oizumi&lt;sup&gt;3&lt;/sup&gt;, Hiroyuki Suzuki&lt;sup&gt;5&lt;/sup&gt;, Masaharu Nishimura&lt;sup&gt;1&lt;/sup&gt;, Hirotoshi Dosaka-Akita&lt;sup&gt;1&lt;/sup&gt;, Hiroshi Isobe&lt;sup&gt;9&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Faculty of Medicine and Graduate School of Medicine, Hokkaido University, Sapporo, Japan; &lt;sup&gt;2&lt;/sup&gt;Obihiro Kosei Hospital, Obihiro, Japan; &lt;sup&gt;3&lt;/sup&gt;National Hospital Organization Hokkaido Cancer Center, Sapporo, Japan; &lt;sup&gt;4&lt;/sup&gt;Keio University School of Medicine, Tokyo, Japan; &lt;sup&gt;5&lt;/sup&gt;Fukushima Medical University, Fukushima, Japan; &lt;sup&gt;6&lt;/sup&gt;Keiyukai Sapporo Hospital, Sapporo, Japan; &lt;sup&gt;7&lt;/sup&gt;Sapporo City General Hospital, Sapporo, Japan; &lt;sup&gt;8&lt;/sup&gt;National Hospital Organization Asahikawa Medical Center, Asahikawa, Japan; &lt;sup&gt;9&lt;/sup&gt;KKR Sapporo Medical Center, Sapporo, Japan; &lt;sup&gt;10&lt;/sup&gt;JCHO Hokkaido Hospital, Sapporo, Japan; &lt;sup&gt;11&lt;/sup&gt;Asahikawa Medical University, Asahikawa, Japan; &lt;sup&gt;12&lt;/sup&gt;Sunagawa City Medical Center, Sunagawa, Japan</t>
+  </si>
+  <si>
+    <t>Robert Lawrence&lt;sup&gt;1&lt;/sup&gt;, Robert Thurman&lt;sup&gt;1&lt;/sup&gt;, Travis Biechele&lt;sup&gt;1&lt;/sup&gt;, Cristina Tognon&lt;sup&gt;2&lt;/sup&gt;, Samantha Savage&lt;sup&gt;2&lt;/sup&gt;, Anna Reister Schultz&lt;sup&gt;2&lt;/sup&gt;, Jeffrey Tyner&lt;sup&gt;2&lt;/sup&gt;, William Arthur&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Seattle Genetics, Inc, Bothell, WA; &lt;sup&gt;2&lt;/sup&gt;Knight Cancer Institute, Oregon Health &amp; Science University, Portland, OR</t>
+  </si>
+  <si>
+    <t>Ling Liu, Aaron D. Wrobleski, Yin Yin, Wei Zeng, Xianming Chen, David J. Stokell, Sheng-bin Peng, Amita Datta-Mannan, Gregory P. Donoho, Philip W. Iversen, Philip Hipskind, Yiqing Feng. Eli Lilly and Company, Indianapolis, IN</t>
+  </si>
+  <si>
+    <t>Anette Sommer&lt;sup&gt;1&lt;/sup&gt;, Pascale Buchmann&lt;sup&gt;2&lt;/sup&gt;, Hans-Georg Lerchen&lt;sup&gt;2&lt;/sup&gt;, Beatrix Stelte-Ludwig&lt;sup&gt;2&lt;/sup&gt;, Christian Bertling&lt;sup&gt;2&lt;/sup&gt;, Jenny Thoennes&lt;sup&gt;2&lt;/sup&gt;, Sandra Johanssen&lt;sup&gt;1&lt;/sup&gt;, Christoph Schatz&lt;sup&gt;1&lt;/sup&gt;, Dominik Mumberg&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Bayer AG, Berlin, Germany; &lt;sup&gt;2&lt;/sup&gt;Bayer AG, Wuppertal, Germany</t>
+  </si>
+  <si>
+    <t>Guoyun Zhu&lt;sup&gt;1&lt;/sup&gt;, Davide Foletti&lt;sup&gt;1&lt;/sup&gt;, Jody Melton-Witt&lt;sup&gt;1&lt;/sup&gt;, Adela Hasa-Moreno&lt;sup&gt;1&lt;/sup&gt;, Mathias Rickert&lt;sup&gt;1&lt;/sup&gt;, Charles Holz&lt;sup&gt;1&lt;/sup&gt;, Laura Aschenbrenner&lt;sup&gt;2&lt;/sup&gt;, Eugenia Kraynov&lt;sup&gt;3&lt;/sup&gt;, Leslie Obert&lt;sup&gt;4&lt;/sup&gt;, Timothy M. Coskran&lt;sup&gt;4&lt;/sup&gt;, Shobha Potluri&lt;sup&gt;1&lt;/sup&gt;, Pavel Strop&lt;sup&gt;1&lt;/sup&gt;, Shu-Hui Liu&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Pfizer Cancer Immunology Discovery / Oncology Research, South San Francisco, CA; &lt;sup&gt;2&lt;/sup&gt;Pfizer Drug Safety Research and Development (DSRD), La Jolla, CA; &lt;sup&gt;3&lt;/sup&gt;Pfizer BMD/PPD / Oncology Research, La Jolla, CA; &lt;sup&gt;4&lt;/sup&gt;Pfizer Drug Safety Research and Development (DSRD), Groton, CT</t>
+  </si>
+  <si>
+    <t>Sarah Johannes, Stefanie Hammer, Stephan Maersch, Hans-Georg Lerchen, Beatrix Stelte-Ludwig, Hannah Joerissen, Oliver von Ahsen, Christoph Schatz, Simone Greven, Christoph Mahlert, Dominik Mumberg, Pascale Lejeune. Bayer AG, Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Takashi Nishimura, Makoto Mitsunaga. Jikei University School of Medicine, Japan</t>
+  </si>
+  <si>
+    <t>Anette Sommer&lt;sup&gt;1&lt;/sup&gt;, Dennis Kirchhoff&lt;sup&gt;1&lt;/sup&gt;, Antje M. Wengner&lt;sup&gt;1&lt;/sup&gt;, Beatrix Stelte-Ludwig&lt;sup&gt;2&lt;/sup&gt;, Hans-Georg Lerchen&lt;sup&gt;2&lt;/sup&gt;, Anne-Sophie Rebstock&lt;sup&gt;3&lt;/sup&gt;, Oliver von Ahsen&lt;sup&gt;1&lt;/sup&gt;, Lisa Dietz&lt;sup&gt;2&lt;/sup&gt;, Pascale Buchmann&lt;sup&gt;2&lt;/sup&gt;, Sandra Johanssen&lt;sup&gt;1&lt;/sup&gt;, Dominik Mumberg&lt;sup&gt;1&lt;/sup&gt;, Bertolt Kreft&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Bayer AG, Berlin, Germany; &lt;sup&gt;2&lt;/sup&gt;Bayer AG, Wuppertal, Germany; &lt;sup&gt;3&lt;/sup&gt;Bayer SAS, Lyon, France</t>
+  </si>
+  <si>
+    <t>Shigehiro Koganemaru&lt;sup&gt;1&lt;/sup&gt;, Yasutoshi Kuboki&lt;sup&gt;1&lt;/sup&gt;, Yoshikatsu Koga&lt;sup&gt;1&lt;/sup&gt;, Takashi Kojima&lt;sup&gt;1&lt;/sup&gt;, Mayumi Yamauchi&lt;sup&gt;1&lt;/sup&gt;, Naoyuki Maeda&lt;sup&gt;2&lt;/sup&gt;, Takashi Kagari&lt;sup&gt;2&lt;/sup&gt;, Kenji Hirotani&lt;sup&gt;2&lt;/sup&gt;, Masahiro Yasunaga&lt;sup&gt;1&lt;/sup&gt;, Yasuhiro Matsumura&lt;sup&gt;1&lt;/sup&gt;, Toshihiko Doi&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;National Cancer Center Hospital East, Kashiwa-shi, Chiba, Japan; &lt;sup&gt;2&lt;/sup&gt;Daiichi Sankyo Co., Ltd., Tokyo, Japan</t>
+  </si>
+  <si>
+    <t>Katharine C. Lai, Min Li, Kathryn Selvitelli, Surina Sikka, Steven Boulé, L. Cristina Gavrilescu, Stuart W. Hicks, Kerry Donahue. ImmunoGen, Inc., Waltham, MA</t>
+  </si>
+  <si>
+    <t>Anette Sommer&lt;sup&gt;1&lt;/sup&gt;, Pascale Lejeune&lt;sup&gt;1&lt;/sup&gt;, Sabine Hoff&lt;sup&gt;1&lt;/sup&gt;, Annette O. Walter&lt;sup&gt;1&lt;/sup&gt;, Sandra Berndt&lt;sup&gt;1&lt;/sup&gt;, Lars Roese&lt;sup&gt;1&lt;/sup&gt;, Andreas Schlicker&lt;sup&gt;1&lt;/sup&gt;, Michael J. Wick&lt;sup&gt;2&lt;/sup&gt;, Cem Elbi&lt;sup&gt;3&lt;/sup&gt;, Dominik Mumberg&lt;sup&gt;1&lt;/sup&gt;, Christoph Schatz&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Bayer AG, Berlin, Germany; &lt;sup&gt;2&lt;/sup&gt;START, San Antonio, TX; &lt;sup&gt;3&lt;/sup&gt;Bayer Heathcare Pharmaceuticals, Whippany, NJ</t>
+  </si>
+  <si>
+    <t>Angela Tam, Mark Zambrowski, Katherine Seiss, Si-Qi Liu, Tinya Abrams, Giordano Caponigro, William Tschantz, Jennifer Campbell, Tony DAlessio, Qing Sheng. Novartis Institutes for BioMedical Research, Cambridge, MA</t>
+  </si>
+  <si>
+    <t>Takeshi Kotake, Eiji Suzuki, Fengling Pu, Tatsuki Kataoka, Masahiro Hirata, Eri Hohokabe, Masakazu Toi. Kyoto University Hospital, Kyoto, Japan</t>
+  </si>
+  <si>
+    <t>Hans-Georg Lerchen&lt;sup&gt;1&lt;/sup&gt;, Beatrix Stelte-Ludwig&lt;sup&gt;1&lt;/sup&gt;, Anette Sommer&lt;sup&gt;2&lt;/sup&gt;, Sandra Berndt&lt;sup&gt;2&lt;/sup&gt;, Anne-Sophie Rebstock&lt;sup&gt;3&lt;/sup&gt;, Sarah Johannes&lt;sup&gt;1&lt;/sup&gt;, Leo Marx&lt;sup&gt;4&lt;/sup&gt;, Christoph Mahlert&lt;sup&gt;1&lt;/sup&gt;, Simone Greven&lt;sup&gt;1&lt;/sup&gt;, Lisa Dietz&lt;sup&gt;1&lt;/sup&gt;, Hannah Joerissen&lt;sup&gt;1&lt;/sup&gt;, Hilmar Weinmann&lt;sup&gt;2&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;BAYER AG, Wuppertal, Germany; &lt;sup&gt;2&lt;/sup&gt;BAYER AG, Berlin, Germany; &lt;sup&gt;3&lt;/sup&gt;BAYER AG, Lyon, France; &lt;sup&gt;4&lt;/sup&gt;Debiopharm, Martigny, Switzerland</t>
+  </si>
+  <si>
+    <t>Urs B. Hagemann&lt;sup&gt;1&lt;/sup&gt;, Pascale LeJeune&lt;sup&gt;1&lt;/sup&gt;, Jenny Karlsson&lt;sup&gt;2&lt;/sup&gt;, Christoph A. Schatz&lt;sup&gt;1&lt;/sup&gt;, Alan S. Cuthbertson&lt;sup&gt;2&lt;/sup&gt;, Hartwig Hennekes&lt;sup&gt;1&lt;/sup&gt;, Karl Ziegelbauer&lt;sup&gt;1&lt;/sup&gt;, Dominik Mumberg&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Bayer Ag, Berlin, Germany; &lt;sup&gt;2&lt;/sup&gt;Bayer AS, Oslo, Norway</t>
+  </si>
+  <si>
+    <t>Yimao Liu&lt;sup&gt;1&lt;/sup&gt;, Rui Wu&lt;sup&gt;1&lt;/sup&gt;, Cristina Gavrilescu&lt;sup&gt;1&lt;/sup&gt;, Jason Sagert&lt;sup&gt;2&lt;/sup&gt;, Kimberly Tipton&lt;sup&gt;2&lt;/sup&gt;, Shouchun Liu&lt;sup&gt;2&lt;/sup&gt;, Chanty Chan&lt;sup&gt;2&lt;/sup&gt;, Steven Boulé&lt;sup&gt;1&lt;/sup&gt;, Alan Wilhelm&lt;sup&gt;1&lt;/sup&gt;, Jacquelynn Lucas&lt;sup&gt;1&lt;/sup&gt;, Bahar Matin&lt;sup&gt;1&lt;/sup&gt;, Jean-Michel Lecerf&lt;sup&gt;1&lt;/sup&gt;, Marian Themeles&lt;sup&gt;1&lt;/sup&gt;, Ashley Morneault&lt;sup&gt;1&lt;/sup&gt;, Tara Drake&lt;sup&gt;1&lt;/sup&gt;, Sadiqa Yancey&lt;sup&gt;1&lt;/sup&gt;, Neeraj Kohli&lt;sup&gt;1&lt;/sup&gt;, Christopher Espelin&lt;sup&gt;1&lt;/sup&gt;, John Follit&lt;sup&gt;1&lt;/sup&gt;, Kerry A. Donahue&lt;sup&gt;1&lt;/sup&gt;, Tom Chittenden&lt;sup&gt;1&lt;/sup&gt;, Cynthia Guidi&lt;sup&gt;1&lt;/sup&gt;, Stuart W. Hicks&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;ImmunoGen Inc., Waltham, MA; &lt;sup&gt;2&lt;/sup&gt;CytomX Therapeutics, Inc., South San Francisco, CA</t>
+  </si>
+  <si>
+    <t>George Procopiou&lt;sup&gt;1&lt;/sup&gt;, Jennifer Auer&lt;sup&gt;1&lt;/sup&gt;, Daniella di Mascio&lt;sup&gt;2&lt;/sup&gt;, Keith R. Fox&lt;sup&gt;2&lt;/sup&gt;, Paolo Andriollo&lt;sup&gt;1&lt;/sup&gt;, Ilona Pysz&lt;sup&gt;1&lt;/sup&gt;, Francesco Cascio&lt;sup&gt;1&lt;/sup&gt;, Nicolas Veillard&lt;sup&gt;1&lt;/sup&gt;, K. Miraz Rahman&lt;sup&gt;1&lt;/sup&gt;, Paul J. M. Jackson&lt;sup&gt;1&lt;/sup&gt;, David E. Thurston&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Femtogenix, Welwyn Garden City, United Kingdom; &lt;sup&gt;2&lt;/sup&gt;University of Southampton, Southampton, United Kingdom</t>
+  </si>
+  <si>
+    <t>Atsushi Suwa, Kazuo Komiya, Kenta Kadotsuji, Shoko Ochiai, Yosuke Takanashi, Eiji Sugaru, Hitoshi Ban. Sumitomo Dainippon Pharma Co., Ltd., Osaka, Japan</t>
+  </si>
+  <si>
+    <t>Jeremy R. Duvall, Marc Damelin, Mariya V. Kozytska, Barrett J. Nehilla, Marina Protopopova, Patrick R. Conlon, LiuLiang Qin, Mark Nazzaro, Josh D. Thomas, Qingxiu Zhang, Dorin Toader, Timothy B. Lowinger . Mersana Therapeutics, Inc., Cambridge, MA</t>
+  </si>
+  <si>
+    <t>Janet Lau, Paulin Salomon, Kerstin Sinkevicius, Juliet Costoplus, Megan Fuller, Raymond Xu, Stuart Hicks, Ravi Chari, Wayne Widdison, Nicholas Yoder, Thomas Keating. ImmunoGen, Waltham, MA</t>
+  </si>
+  <si>
+    <t>Rajeeva Singh, Luke Harris, Paulin Salomon, Emily E. Reid, Michael L. Miller, Ravi V. J. Chari, Thomas A. Keating. ImmunoGen, Inc., Waltham, MA</t>
+  </si>
+  <si>
+    <t>Eileen Hu&lt;sup&gt;1&lt;/sup&gt;, Priscilla Do&lt;sup&gt;2&lt;/sup&gt;, Rajeswaran Mani&lt;sup&gt;1&lt;/sup&gt;, Frank Frissora&lt;sup&gt;1&lt;/sup&gt;, Rebecca Pearson&lt;sup&gt;1&lt;/sup&gt;, Gerard Lozanski&lt;sup&gt;1&lt;/sup&gt;, Haiyong Peng&lt;sup&gt;3&lt;/sup&gt;, Lorenz Waldmeier&lt;sup&gt;4&lt;/sup&gt;, Roger Beerli&lt;sup&gt;4&lt;/sup&gt;, Christoph Rader&lt;sup&gt;3&lt;/sup&gt;, Ulf Grawunder&lt;sup&gt;4&lt;/sup&gt;, John Byrd&lt;sup&gt;1&lt;/sup&gt;, Natarajan Muthusamy&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;The Ohio State University College of Medicine, Columbus, OH; &lt;sup&gt;2&lt;/sup&gt;Emory University, Atlanta, GA; &lt;sup&gt;3&lt;/sup&gt;The Scripps Research Institute, Jupiter, FL; &lt;sup&gt;4&lt;/sup&gt;NBE-Therapeutics Ltd, Basel, Switzerland</t>
+  </si>
+  <si>
+    <t>David Surguladze, Anthony Pennello, Xiaodi Ren, Tim Mack, Alan Rigby, Paul Balderes, Elizabeth Navarro, Nelusha Amaladas, Scott Eastman, Michael Topper, Yung-mae Yao, Chris Moxham, Gregory Plowman, Dale Ludwig. Eli Lilly and Company, New York, NY</t>
+  </si>
+  <si>
+    <t>Paulin Salomon, Luke Harris, Emily E. Reid, Erin K. Maloney, Alan J. Wilhelm, Michael L. Miller, Ravi V. J. Chari, Thomas A. Keating, Rajeeva Singh. ImmunoGen, Inc., Waltham, MA</t>
+  </si>
+  <si>
+    <t>Astrid Zimmermann&lt;sup&gt;1&lt;/sup&gt;, Michael Carr&lt;sup&gt;2&lt;/sup&gt;, Frank T. Zenke&lt;sup&gt;1&lt;/sup&gt;, Andree Blaukat&lt;sup&gt;1&lt;/sup&gt;, Lyubomir T. Vassilev&lt;sup&gt;2&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Merck KGaA, Darmstadt, Germany; &lt;sup&gt;2&lt;/sup&gt;EMD Serono, Billerica, MA</t>
+  </si>
+  <si>
+    <t>Andres Perez Bay, Anuj Kalsy, Shiwani Tiwari, Bo Luan, Art Kunz, Zhaoyuan Chen, Li Zhang, Terra Potocky, Thomas Nittoli, Gavin Thurston, Christopher Daly, Julian Andreev. Regeneron Pharmaceuticals, NY</t>
+  </si>
+  <si>
+    <t>Francesca Zammarchi&lt;sup&gt;1&lt;/sup&gt;, Francois Bertelli&lt;sup&gt;2&lt;/sup&gt;, Karin Havenith&lt;sup&gt;1&lt;/sup&gt;, Ian Kirby&lt;sup&gt;1&lt;/sup&gt;, Simon Chivers&lt;sup&gt;1&lt;/sup&gt;, Patrick H. van Berkel&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;ADC Therapeutics, London, United Kingdom; &lt;sup&gt;2&lt;/sup&gt;Spirogen/MedImmune, London, United Kingdom</t>
+  </si>
+  <si>
+    <t>Kathryn Evans&lt;sup&gt;1&lt;/sup&gt;, Narimanne El-Zein&lt;sup&gt;1&lt;/sup&gt;, Connor Jones&lt;sup&gt;1&lt;/sup&gt;, Stephen W. Erickson&lt;sup&gt;2&lt;/sup&gt;, Yuelong Guo&lt;sup&gt;2&lt;/sup&gt;, Beverly A. Teicher&lt;sup&gt;3&lt;/sup&gt;, Sharlene Adams&lt;sup&gt;4&lt;/sup&gt;, Patrick A. Zweidler-McKay&lt;sup&gt;4&lt;/sup&gt;, Malcolm A. Smith&lt;sup&gt;3&lt;/sup&gt;, Richard B. Lock&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Children's Cancer Institute, Sydney, Australia; &lt;sup&gt;2&lt;/sup&gt;RTI International, Research Triangle Park, NC; &lt;sup&gt;3&lt;/sup&gt;National Cancer Institute, Bethesda, MD; &lt;sup&gt;4&lt;/sup&gt;ImmunoGen Inc, Waltham, MA</t>
+  </si>
+  <si>
+    <t>Laura A. Laviolette&lt;sup&gt;1&lt;/sup&gt;, Cynthia J. Guidi&lt;sup&gt;1&lt;/sup&gt;, Christian Reichen&lt;sup&gt;2&lt;/sup&gt;, Qifeng Qiu&lt;sup&gt;1&lt;/sup&gt;, Luke Harris&lt;sup&gt;1&lt;/sup&gt;, Patricia Schildknecht&lt;sup&gt;2&lt;/sup&gt;, Stefanie Fischer&lt;sup&gt;2&lt;/sup&gt;, Zita Arany&lt;sup&gt;2&lt;/sup&gt;, Tanja Hospodarsch&lt;sup&gt;2&lt;/sup&gt;, Anna Skaletskaya&lt;sup&gt;1&lt;/sup&gt;, Megan Fuller&lt;sup&gt;1&lt;/sup&gt;, Rebecca McCarthy&lt;sup&gt;1&lt;/sup&gt;, Jenny Lee&lt;sup&gt;1&lt;/sup&gt;, Katherine Francisco&lt;sup&gt;1&lt;/sup&gt;, Kerstin Sinkevicius&lt;sup&gt;1&lt;/sup&gt;, Sharlene Adams&lt;sup&gt;1&lt;/sup&gt;, Christopher Espelin&lt;sup&gt;1&lt;/sup&gt;, Emily Reid&lt;sup&gt;1&lt;/sup&gt;, Wei Li&lt;sup&gt;1&lt;/sup&gt;, Carla Marashio&lt;sup&gt;1&lt;/sup&gt;, Kerry Donahue&lt;sup&gt;1&lt;/sup&gt;, Stuart Hicks&lt;sup&gt;1&lt;/sup&gt;, Dan Snell&lt;sup&gt;2&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;ImmunoGen, Inc, Waltham, MA; &lt;sup&gt;2&lt;/sup&gt;Molecular Partners AG, Zurich-Schlieren, Switzerland</t>
+  </si>
+  <si>
+    <t>Michael L. Miller, Emily E. Reid, Katie E. Archer, Luke Harris, Erin K. Maloney, Laura M. Bartle, Olga Ab, Alan J. Wilhelm, Jose F. Ponte, Rajeeva Singh, Thomas A. Keating, Ravi V. J. Chari. ImmunoGen, Waltham, MA</t>
+  </si>
+  <si>
+    <t>Drishti Navin Sehgal, Stephen Kalscheuer, Jayanth Panyam. University of Minnesota, Minneapolis, MN</t>
+  </si>
+  <si>
+    <t>Leanne Lanieri, Rassol Laleau, Bahar Matin, Jenny Lee, Steven Boule, Paulin Salomon, Luke Harris, Michael Miller, Nicholas C. Yoder, Yulius Setiady, Neeraj Kohli, Thomas A. Keating, Jan Pinkas, Richard Gregory. ImmunoGen, Inc., Waltham, MA</t>
+  </si>
+  <si>
+    <t>Erika Von Euw, Eileen Taschereau, Da Ming Ou, Monica Mead, Sarah Larson, Dennis Slamon. UCLA, Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>Mayu Shiomi&lt;sup&gt;1&lt;/sup&gt;, Shinya Matsuzaki&lt;sup&gt;1&lt;/sup&gt;, Ruriko Nakae&lt;sup&gt;1&lt;/sup&gt;, Satoshi Nakagawa&lt;sup&gt;1&lt;/sup&gt;, Akiko Okazawa&lt;sup&gt;1&lt;/sup&gt;, Eiji Kobayashi&lt;sup&gt;1&lt;/sup&gt;, Yutaka Ueda&lt;sup&gt;1&lt;/sup&gt;, Satoshi Serada&lt;sup&gt;2&lt;/sup&gt;, Tetsuji Naka&lt;sup&gt;2&lt;/sup&gt;, Tadashi Kimura&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Osaka University Graduate School of Medicine, Suita City, Japan; &lt;sup&gt;2&lt;/sup&gt;Kochi University Medical Hospital, Kochi City, Japan</t>
+  </si>
+  <si>
+    <t>Kento Kumon, Tetsushi Kubota, Shinji Kuroda, Nobuhiko Kanaya, Yoshihiko Kakiuchi, Tomoko Tsumura, Satoru Kikuchi, Shunsuke Kagawa, Hiroshi Tazawa, Toshiyoshi Fujiwara. Okayama University Graduate School of Medicine, Dentistry and Pharmaceutical Sciences, Okayama city, Japan</t>
+  </si>
+  <si>
+    <t>Keiichiro Yokota, Satoshi Serada, Shigehiro Tsujii, Kosuke Hiramatsu, Tsutomu Namikawa, Ichiro Murakami, Kazuhiro Hanazaki, Tetsuji Naka. Kochi University, Kochi, Japan</t>
+  </si>
+  <si>
+    <t>Jing Ni&lt;sup&gt;1&lt;/sup&gt;, Yanzhi Wang&lt;sup&gt;1&lt;/sup&gt;, Irmina Diala&lt;sup&gt;2&lt;/sup&gt;, Sheheryar Kabraji&lt;sup&gt;1&lt;/sup&gt;, Rachel Freedman&lt;sup&gt;1&lt;/sup&gt;, Nancy Lin&lt;sup&gt;1&lt;/sup&gt;, Jean Zhao&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Dana-Farber Cancer Institute, Boston, MA; &lt;sup&gt;2&lt;/sup&gt;Puma Biotechnology, Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>Ming-Chen Yang, Yu-Jung Chen, Chi-Sheng Shia, Hui-Wen Chang, Wan-Fen Li, Cheng-Der Tony Yu, I-Ju Chen. OBI Pharma. Inc., Taipei, Taiwan</t>
+  </si>
+  <si>
+    <t>Christian Breunig, Anikó Pálfi, Michael Kulke, Christian Lutz, Christoph Müller, Torsten Hechler, Andreas Pahl. Heidelberg Pharma Research GmbH, Ladenburg, Germany</t>
+  </si>
+  <si>
+    <t>Iontcho Vlahov, Longwu Qi, Hari K. R. Santhapuram, Garth Parham, Kevin Wang, Jeremy F. Vaughn, Spencer J. Hahn, Marilynn Vetzel, Melissa Nelson, Joseph A. Reddy, Christopher P. Leamon. Endocyte, W. Lafayette, IN</t>
+  </si>
+  <si>
+    <t>Shunqiang Li&lt;sup&gt;1&lt;/sup&gt;, Highkin Maureen&lt;sup&gt;1&lt;/sup&gt;, Tina M. Primeau&lt;sup&gt;1&lt;/sup&gt;, Stephanie L. Pratt&lt;sup&gt;1&lt;/sup&gt;, Irmina Diala&lt;sup&gt;2&lt;/sup&gt;, Richard E. Cutler, Jr.&lt;sup&gt;2&lt;/sup&gt;, Grace Mann&lt;sup&gt;2&lt;/sup&gt;, Alshad S. Lalani&lt;sup&gt;2&lt;/sup&gt;, Cynthia X. Ma&lt;sup&gt;1&lt;/sup&gt;, Ron Bose&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Washington University School of Medicine, Saint Louis, MO; &lt;sup&gt;2&lt;/sup&gt;Puma Biotechnology, Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>Oliver Surriga&lt;sup&gt;1&lt;/sup&gt;, John DaSilva&lt;sup&gt;2&lt;/sup&gt;, Gary K. Schwartz&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Columbia University Irving Medical Center, New York, NY; &lt;sup&gt;2&lt;/sup&gt;Regeneron Pharmaceuticals, Inc., Tarrytown, NY</t>
+  </si>
+  <si>
+    <t>Maria Luz Jaramillo&lt;sup&gt;1&lt;/sup&gt;, Anne Marcil&lt;sup&gt;1&lt;/sup&gt;, Alma Robert&lt;sup&gt;1&lt;/sup&gt;, Normand Jolicoeur&lt;sup&gt;1&lt;/sup&gt;, Cunle Wu&lt;sup&gt;1&lt;/sup&gt;, Yves Fortin&lt;sup&gt;1&lt;/sup&gt;, Yuneivy Cepero Donates&lt;sup&gt;1&lt;/sup&gt;, Mauro Acchione&lt;sup&gt;1&lt;/sup&gt;, Jacqueline Slinn&lt;sup&gt;2&lt;/sup&gt;, Binbing Ling&lt;sup&gt;2&lt;/sup&gt;, Maria Moreno&lt;sup&gt;2&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;National Research Council, Montréal, QC, Canada; &lt;sup&gt;2&lt;/sup&gt;National Research Council, Ottawa, ON, Canada</t>
+  </si>
+  <si>
+    <t>Marco Gymnopoulos&lt;sup&gt;1&lt;/sup&gt;, Oscar Betancourt&lt;sup&gt;1&lt;/sup&gt;, Vincent Blot&lt;sup&gt;2&lt;/sup&gt;, Ryo Fujita&lt;sup&gt;3&lt;/sup&gt;, Diana Ly&lt;sup&gt;1&lt;/sup&gt;, Sophie Nguyen&lt;sup&gt;1&lt;/sup&gt;, Jeanette Snedden&lt;sup&gt;1&lt;/sup&gt;, Jose Villicana&lt;sup&gt;1&lt;/sup&gt;, Jon Wojciak&lt;sup&gt;1&lt;/sup&gt;, Eley Wong&lt;sup&gt;4&lt;/sup&gt;, Neki Patel&lt;sup&gt;5&lt;/sup&gt;, Francois D'Hooge&lt;sup&gt;6&lt;/sup&gt;, Balakumar Vijayakrishnan&lt;sup&gt;5&lt;/sup&gt;, Conor Barry&lt;sup&gt;5&lt;/sup&gt;, John A. Hartley&lt;sup&gt;7&lt;/sup&gt;, Phil W. Howard&lt;sup&gt;5&lt;/sup&gt;, Roland Newman&lt;sup&gt;1&lt;/sup&gt;, Julia Coronella&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Tanabe Research Laboratory USA, Inc., San Diego, CA; &lt;sup&gt;2&lt;/sup&gt;AbbVie Inc., North Chicago, IL; &lt;sup&gt;3&lt;/sup&gt;Mitsubishi Tanabe Pharma Corporation, Toda-shi, Japan; &lt;sup&gt;4&lt;/sup&gt;Neurocrine Biosciences, Inc., San Diego, CA; &lt;sup&gt;5&lt;/sup&gt;Spirogen Ltd, London, United Kingdom; &lt;sup&gt;6&lt;/sup&gt;GamaMabs Pharma SA, Toulouse, France; &lt;sup&gt;7&lt;/sup&gt;University College London, London, United Kingdom</t>
+  </si>
+  <si>
+    <t>Leiming Xia&lt;sup&gt;1&lt;/sup&gt;, Lu Wen&lt;sup&gt;1&lt;/sup&gt;, Gang Wu&lt;sup&gt;2&lt;/sup&gt;, Tao Zhang&lt;sup&gt;2&lt;/sup&gt;, Frank Comer&lt;sup&gt;3&lt;/sup&gt;, Mary Jane Masson Hinrichs&lt;sup&gt;4&lt;/sup&gt;, Michael Oberst&lt;sup&gt;3&lt;/sup&gt;, Steven R. Coats&lt;sup&gt;3&lt;/sup&gt;, Alfred E. Chang&lt;sup&gt;1&lt;/sup&gt;, Yuanyuan Liu&lt;sup&gt;5&lt;/sup&gt;, Yangyi Bao&lt;sup&gt;5&lt;/sup&gt;, Max Wicha&lt;sup&gt;1&lt;/sup&gt;, Qiao Li&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Univ. of Michigan, Ann Arbor, MI; &lt;sup&gt;2&lt;/sup&gt;Cancer Center, Wuhan, China; &lt;sup&gt;3&lt;/sup&gt;MedImmune, Gaithersburg, MD; &lt;sup&gt;4&lt;/sup&gt;MedImmune, Bethesda, MD; &lt;sup&gt;5&lt;/sup&gt;The First People’s Hospital of Hefei, Hefei, China</t>
+  </si>
+  <si>
+    <t>Marc Trombe&lt;sup&gt;1&lt;/sup&gt;, Anne Caron&lt;sup&gt;1&lt;/sup&gt;, Alexia Tellier&lt;sup&gt;1&lt;/sup&gt;, Chantal Carrez&lt;sup&gt;1&lt;/sup&gt;, Stephane Guérif&lt;sup&gt;1&lt;/sup&gt;, Severine Clavier&lt;sup&gt;1&lt;/sup&gt;, Nathalie Karst&lt;sup&gt;1&lt;/sup&gt;, Juhani Saarinen&lt;sup&gt;2&lt;/sup&gt;, Tero Satomaa&lt;sup&gt;2&lt;/sup&gt;, Virve Pitkänen&lt;sup&gt;2&lt;/sup&gt;, Olli Aitio&lt;sup&gt;2&lt;/sup&gt;, Annamari Heiskanen&lt;sup&gt;2&lt;/sup&gt;, Matteo Fassan&lt;sup&gt;3&lt;/sup&gt;, Jan Pinkas&lt;sup&gt;4&lt;/sup&gt;, Raffaele Baffa&lt;sup&gt;5&lt;/sup&gt;, Veronique Blanc&lt;sup&gt;1&lt;/sup&gt;, Celine Nicolazzi&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Sanofi, Vitry Sur Seine, France; &lt;sup&gt;2&lt;/sup&gt;Glykos, Helsinki, Finland; &lt;sup&gt;3&lt;/sup&gt;University of Padova, Padua, Italy; &lt;sup&gt;4&lt;/sup&gt;ImmunoGen, Waltham, MA; &lt;sup&gt;5&lt;/sup&gt;Sanofi, Cambridge, MA</t>
+  </si>
+  <si>
+    <t>Aradhana Awasthi Tiwari&lt;sup&gt;1&lt;/sup&gt;, Dina Edani&lt;sup&gt;1&lt;/sup&gt;, Janet Ayello&lt;sup&gt;1&lt;/sup&gt;, Christian Klein&lt;sup&gt;2&lt;/sup&gt;, Mitchell S. Cairo&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;New York Medical College, Valhalla, NY; &lt;sup&gt;2&lt;/sup&gt;Roche Pharmaceutical Research &amp; Early Development, Zurich, Switzerland</t>
+  </si>
+  <si>
+    <t>Alexander Scholz&lt;sup&gt;1&lt;/sup&gt;, Jerald Aurellano&lt;sup&gt;1&lt;/sup&gt;, Michael Harbell&lt;sup&gt;1&lt;/sup&gt;, Danhui Zhang&lt;sup&gt;1&lt;/sup&gt;, Samantha O'Connor&lt;sup&gt;1&lt;/sup&gt;, Beatriz Millare&lt;sup&gt;1&lt;/sup&gt;, Felix Chu&lt;sup&gt;1&lt;/sup&gt;, Sheila Fernandez&lt;sup&gt;1&lt;/sup&gt;, Cathrin J. Czupalla&lt;sup&gt;1&lt;/sup&gt;, Iraz Aydin&lt;sup&gt;1&lt;/sup&gt;, Amy Manning-Bog&lt;sup&gt;1&lt;/sup&gt;, Yvonne Leung&lt;sup&gt;1&lt;/sup&gt;, Kevin Williamson&lt;sup&gt;1&lt;/sup&gt;, Chantia Carroll&lt;sup&gt;1&lt;/sup&gt;, Dongkyoon Kim&lt;sup&gt;1&lt;/sup&gt;, Xiaomu Chen&lt;sup&gt;1&lt;/sup&gt;, Sean M. Carroll&lt;sup&gt;1&lt;/sup&gt;, Ish Dhawan&lt;sup&gt;1&lt;/sup&gt;, Ngan Nguyen&lt;sup&gt;1&lt;/sup&gt;, Shweta Thyagarajan&lt;sup&gt;1&lt;/sup&gt;, Mark Whidden&lt;sup&gt;1&lt;/sup&gt;, Gregg Espiritu Santo&lt;sup&gt;1&lt;/sup&gt;, Nicole Haaser&lt;sup&gt;1&lt;/sup&gt;, Guy Cavet&lt;sup&gt;1&lt;/sup&gt;, Lawrence Steinman&lt;sup&gt;2&lt;/sup&gt;, Tito A. Serafini&lt;sup&gt;1&lt;/sup&gt;, Wayne Volkmuth&lt;sup&gt;1&lt;/sup&gt;, Jonathan Benjamin&lt;sup&gt;1&lt;/sup&gt;, William H. Robinson&lt;sup&gt;3&lt;/sup&gt;, Norman M. Greenberg&lt;sup&gt;1&lt;/sup&gt;, Daniel Emerling&lt;sup&gt;1&lt;/sup&gt;, Jeff DeFalco&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Atreca, Inc., Redwood City, CA; &lt;sup&gt;2&lt;/sup&gt;Stanford University School of Medicine Department of Neurology and Neurological Sciences, Palo Alto, CA; &lt;sup&gt;3&lt;/sup&gt;Stanford University School of Medicine Division of Immunology and Rheumatology, Palo Alto, CA</t>
+  </si>
+  <si>
+    <t>Willy Solis, Venita De Almeida, Cristina Abrahams, Xiaofan Li, Tyler Heibeck, Maureen Bruhns, Adam Galan, Heidi Hoffman, Robert Kiss, Trevor Hallam, Mark Lupher. Sutro Biopharma, South San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Wayne Deats, Wayne Widdison, Juliet Costoplus, Bahar Matin, Nicole McBrine, Laura Bartle, Olga Ab, Richard Gregory, Jan Pinkas. ImmunoGen, Inc., Waltham, MA</t>
+  </si>
+  <si>
+    <t>Amy Jackson-Fisher&lt;sup&gt;1&lt;/sup&gt;, Navi Mehra&lt;sup&gt;2&lt;/sup&gt;, Roberto Gianani&lt;sup&gt;2&lt;/sup&gt;, Pamela Whalen&lt;sup&gt;1&lt;/sup&gt;, Pamela Vizcarra&lt;sup&gt;1&lt;/sup&gt;, Shibing Deng&lt;sup&gt;1&lt;/sup&gt;, Stephen McComish&lt;sup&gt;1&lt;/sup&gt;, Xiaohua Xin&lt;sup&gt;1&lt;/sup&gt;, Eric L. Powell&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Pfizer Early Oncology Development &amp; Clinical Research, La Jolla, CA; &lt;sup&gt;2&lt;/sup&gt;Flagship Biosciences, Inc, Westminster, CO</t>
+  </si>
+  <si>
+    <t>Weijia Tang&lt;sup&gt;1&lt;/sup&gt;, Xingxing Mei&lt;sup&gt;1&lt;/sup&gt;, Ziqiang Ou&lt;sup&gt;1&lt;/sup&gt;, Jirong Gan&lt;sup&gt;1&lt;/sup&gt;, Shengfeng Li&lt;sup&gt;2&lt;/sup&gt;, Jin-Chen Yu&lt;sup&gt;2&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Bio-Thera Solutions, Guangzhou, China; &lt;sup&gt;2&lt;/sup&gt;Bio-Thera Solutions, Elkridge, MD</t>
+  </si>
+  <si>
+    <t>Dorin Toader, Marc Damelin, Anouk Dirksen, Shawn P. Fesler, Scott D. Collins, Barrett J. Nehilla, Jian Xu, Ling Xu, Kalli C. Cattcott, Alex Uttard, Winnie Lee, Susan Clardy, Cheri A. Stevenson, LiuLiang Qin, Patrick R. Conlon, Mariya V. Kozytska, Chen-Ni Chin, David H. Lee, Timothy B. Lowinger. Mersana Therapeutics, Inc., Cambridge, MA</t>
+  </si>
+  <si>
+    <t>Philip M. Vitorno&lt;sup&gt;1&lt;/sup&gt;, Chen-Hua Chuang&lt;sup&gt;1&lt;/sup&gt;, Christine Moore&lt;sup&gt;1&lt;/sup&gt;, Tolga Turan&lt;sup&gt;2&lt;/sup&gt;, Ronald Ferrando&lt;sup&gt;1&lt;/sup&gt;, Aaron Nichols&lt;sup&gt;1&lt;/sup&gt;, Shravanthi Madhavan&lt;sup&gt;1&lt;/sup&gt;, Laura R. Saunders&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;AbbVie, South San Francisco, CA; &lt;sup&gt;2&lt;/sup&gt;AbbVie, Redwood City, CA</t>
+  </si>
+  <si>
+    <t>Hao Xie&lt;sup&gt;1&lt;/sup&gt;, Kumiko Isse&lt;sup&gt;2&lt;/sup&gt;, Yan Sun&lt;sup&gt;2&lt;/sup&gt;, Johanna Ramoth&lt;sup&gt;2&lt;/sup&gt;, Dorothy M. French&lt;sup&gt;2&lt;/sup&gt;, Laura R. Saunders&lt;sup&gt;2&lt;/sup&gt;, Aaron S. Mansfield&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Mayo Clinic, Rochester, MN; &lt;sup&gt;2&lt;/sup&gt;AbbVie Stemcentrx LLC, South San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Shelley E. Ackerman&lt;sup&gt;1&lt;/sup&gt;, Joseph C. Gonzalez&lt;sup&gt;1&lt;/sup&gt;, Josh D. Gregorio&lt;sup&gt;1&lt;/sup&gt;, Jason C. Paik&lt;sup&gt;2&lt;/sup&gt;, Felix J. Hartmann&lt;sup&gt;2&lt;/sup&gt;, Justin A. Kenkel&lt;sup&gt;1&lt;/sup&gt;, Arthur Lee&lt;sup&gt;1&lt;/sup&gt;, Angela Luo&lt;sup&gt;1&lt;/sup&gt;, Cecelia I. Pearson&lt;sup&gt;1&lt;/sup&gt;, Murray L. Nguyen&lt;sup&gt;1&lt;/sup&gt;, Benjamin Ackerman&lt;sup&gt;3&lt;/sup&gt;, Lauren Y. Sheu&lt;sup&gt;2&lt;/sup&gt;, Richard P. Laura&lt;sup&gt;1&lt;/sup&gt;, Steven J. Chapin&lt;sup&gt;1&lt;/sup&gt;, Brian S. Safina&lt;sup&gt;1&lt;/sup&gt;, Sean C. Bendall&lt;sup&gt;2&lt;/sup&gt;, David Dornan&lt;sup&gt;1&lt;/sup&gt;, Edgar G. Engleman&lt;sup&gt;2&lt;/sup&gt;, Michael N. Alonso&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Bolt Biotherapeutics, Redwood City, CA; &lt;sup&gt;2&lt;/sup&gt;Stanford University, Stanford, CA; &lt;sup&gt;3&lt;/sup&gt;Johns Hopkins Bloomberg School of Public Health, Baltimore, MD</t>
+  </si>
+  <si>
+    <t>Bhaskar S. Mandavilli, Chris Langsdorf, Aimei Chen, Yi-Zhen Hu, Marcy Wickett. Thermo Fisher Scientific, Eugene, OR</t>
+  </si>
+  <si>
+    <t>Sharsti L. Sandall, Marsha Mason, Devra Olson, Rebecca Mazahreh, Disha Sahetya, Lori Westendorf, Chris Leiske, Brian Schimpf, Liem Nguyen, Madhu Katepalli, Esther Trueblood, Christopher Hale, Albina Nesterova, Jason Wall, Timothy S. Lewis. Seattle Genetics, Bothell, WA</t>
+  </si>
+  <si>
+    <t>Bob Y. Liu, Joel Shen, Matthias Will, Sreeni Yalamanchili, Judi Gordon, Mark Stroh, Jennifer Richardson, Annie Weaver, Luc Desnoyer, Marcia Belvin, Michael Kavanaugh, Siew Schleyer. CytomX, South San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Stephen C. Alley&lt;sup&gt;1&lt;/sup&gt;, Jeffrey R. Harris&lt;sup&gt;2&lt;/sup&gt;, Anthony Cao&lt;sup&gt;1&lt;/sup&gt;, Elke Gresnigt-van den Heuvel&lt;sup&gt;3&lt;/sup&gt;, Jyoti Velayudhan&lt;sup&gt;1&lt;/sup&gt;, David Satijn&lt;sup&gt;3&lt;/sup&gt;, Sandra Verploegen&lt;sup&gt;3&lt;/sup&gt;, Teresa Dominguez&lt;sup&gt;1&lt;/sup&gt;, Esther C. W. Breij&lt;sup&gt;3&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Seattle Genetics, Inc., Bothell, WA; &lt;sup&gt;2&lt;/sup&gt;Genmab, Princeton, NJ; &lt;sup&gt;3&lt;/sup&gt;Genmab, Utrecht, Netherlands</t>
+  </si>
+  <si>
+    <t>Emily Capone&lt;sup&gt;1&lt;/sup&gt;, Sara Ponziani&lt;sup&gt;2&lt;/sup&gt;, Francesco Giansanti&lt;sup&gt;2&lt;/sup&gt;, Roberta Gentile&lt;sup&gt;2&lt;/sup&gt;, Giulia Di Vittorio&lt;sup&gt;2&lt;/sup&gt;, Vincenzo De Laurenzi&lt;sup&gt;1&lt;/sup&gt;, Michele Sallese&lt;sup&gt;1&lt;/sup&gt;, Sandra Bibbò&lt;sup&gt;1&lt;/sup&gt;, Arturo Sala&lt;sup&gt;3&lt;/sup&gt;, Rodolfo Ippoliti&lt;sup&gt;2&lt;/sup&gt;, Jean Frederic Sauniere&lt;sup&gt;4&lt;/sup&gt;, Stefano Iacobelli&lt;sup&gt;4&lt;/sup&gt;, Gianluca Sala&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;University of Chieti-Pescara, Chieti, Italy; &lt;sup&gt;2&lt;/sup&gt;University of Aquila, L'Aquila, Italy; &lt;sup&gt;3&lt;/sup&gt;Brunel London University, London, United Kingdom; &lt;sup&gt;4&lt;/sup&gt;Mediapharma srl, Chieti, Italy</t>
+  </si>
+  <si>
+    <t>Simon Corbett&lt;sup&gt;1&lt;/sup&gt;, Francesca Zammarchi&lt;sup&gt;2&lt;/sup&gt;, Philip W Howard&lt;sup&gt;3&lt;/sup&gt;, Patrick H van Berkel&lt;sup&gt;2&lt;/sup&gt;, John A Hartley&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;University College London, London, United Kingdom; &lt;sup&gt;2&lt;/sup&gt;ADC Therapeutics, London, United Kingdom; &lt;sup&gt;3&lt;/sup&gt;Spirogen/MedImmune, London, United Kingdom</t>
+  </si>
+  <si>
+    <t>Kerstin W. Sinkevicius, Leanne Lanieri, Jenny Lee, Steven Boule, Nicholas C. Yoder, Stuart W. Hicks, Jan Pinkas, Jose F. Ponte, Richard J. Gregory. ImmunoGen, Waltham, MA</t>
+  </si>
+  <si>
+    <t>Salvatore Lopez, Chanhee Han, Burak Zeybek, Elena Bonazzoli, Anna Bianchi, Paola Manara, Stefania Bellone, Aranzazu Manzano, Emanuele Perrone, Luca Zammataro, Gary Altwerger, Alessandro D. Santin. Yale Univ., New Haven, CT</t>
+  </si>
+  <si>
+    <t>Jorge Marquez, Chun Dong, Jianping Dong, Binbin Yue, Ginette Serrero. A&amp;G Pharmaceutical, Inc., Columbia, MD</t>
+  </si>
+  <si>
+    <t>Sara C. Sigler, Vinayak Gupta, Hanh N. Nguyen, Michael K. Rood, Jutta Wanner, Doug S. Werner. BlinkBio, Inc, Jupiter, FL</t>
+  </si>
+  <si>
+    <t>Erwan Le Scolan, Tiffany Tse, Michael Krimm, Will Garner, Hikmat Assi, Jennifer Razo, Laurie Wong, Kenneth Wong, Victoria Singson, Jennifer Leong, Linnea Diep, Jennifer Richardson, Siew Schleyer, Dylan Daniel, Marcia Belvin, Michael Kavanaugh. CytomX Therapeutics, South San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Gavin S. Bennett&lt;sup&gt;1&lt;/sup&gt;, Amy Brown&lt;sup&gt;1&lt;/sup&gt;, Gemma Mudd&lt;sup&gt;1&lt;/sup&gt;, Johanna Lahdenranta&lt;sup&gt;2&lt;/sup&gt;, Nicholas Keen&lt;sup&gt;2&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Bicycle Therapeutics Ltd, Cambridge, United Kingdom; &lt;sup&gt;2&lt;/sup&gt;Bicycle Therapeutics Inc, Cambridge, United Kingdom</t>
+  </si>
+  <si>
+    <t>Ilona Pysz, Paolo Andriollo, Paul J. M. Jackson, K. M. Rahman, David E. Thurston. Femtogenix, Welwyn Garden City, United Kingdom</t>
+  </si>
+  <si>
+    <t>Stuart Hicks&lt;sup&gt;1&lt;/sup&gt;, Deryk Loo&lt;sup&gt;2&lt;/sup&gt;, Kerstin Sinkevicius&lt;sup&gt;1&lt;/sup&gt;, Juniper Scribner&lt;sup&gt;2&lt;/sup&gt;, Bhaswati Barat&lt;sup&gt;3&lt;/sup&gt;, Nicholas Yoder&lt;sup&gt;1&lt;/sup&gt;, Christopher Espelin&lt;sup&gt;1&lt;/sup&gt;, Marian Themeles&lt;sup&gt;1&lt;/sup&gt;, Francine Chen&lt;sup&gt;2&lt;/sup&gt;, Jacquelynn Lucas&lt;sup&gt;1&lt;/sup&gt;, Jennifer Brown&lt;sup&gt;3&lt;/sup&gt;, Bahar Matin&lt;sup&gt;1&lt;/sup&gt;, Megan Fuller&lt;sup&gt;1&lt;/sup&gt;, Jenny Lee&lt;sup&gt;1&lt;/sup&gt;, Paulin Salomon&lt;sup&gt;1&lt;/sup&gt;, Juliet Costoplus&lt;sup&gt;1&lt;/sup&gt;, Sadiqa Yancey&lt;sup&gt;1&lt;/sup&gt;, Gundo Diedrich&lt;sup&gt;3&lt;/sup&gt;, Sergey Gorlatov&lt;sup&gt;3&lt;/sup&gt;, Thomas Son&lt;sup&gt;2&lt;/sup&gt;, Michael Chiechi&lt;sup&gt;2&lt;/sup&gt;, Pam Li&lt;sup&gt;2&lt;/sup&gt;, Michael Spliedt&lt;sup&gt;3&lt;/sup&gt;, Valentina Ciccarone&lt;sup&gt;3&lt;/sup&gt;, Jeff Hooley&lt;sup&gt;2&lt;/sup&gt;, Nadia Gantt&lt;sup&gt;3&lt;/sup&gt;, James Tamura&lt;sup&gt;3&lt;/sup&gt;, Kerry Donahue&lt;sup&gt;1&lt;/sup&gt;, Paul Moore&lt;sup&gt;3&lt;/sup&gt;, Syd Johnson&lt;sup&gt;3&lt;/sup&gt;, Thomas Chittenden&lt;sup&gt;1&lt;/sup&gt;, Richard Gregory&lt;sup&gt;1&lt;/sup&gt;, Ezio Bonvini&lt;sup&gt;3&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Immunogen, Inc., Waltham, MA; &lt;sup&gt;2&lt;/sup&gt;MacroGenics, Brisbane, CA; &lt;sup&gt;3&lt;/sup&gt;MacroGenics, Rockville, MD</t>
+  </si>
+  <si>
+    <t>Pamela M. Whalen, Amy Jackson-Fisher, Pamela Vizcarra, Cory Painter, Steven Pirie-Shepherd, Diane R. Fernandez, Joseph Lee, Eric L. Powell. Pfizer Early Oncology Development &amp; Clinical Research, La Jolla, CA</t>
+  </si>
+  <si>
+    <t>Chris Neumann, Kathleen C. Olivas, Kung Pern Wang, Andrew B. Waight, David W. Meyer, Luke V. Loftus, Margo C. Zaval, Martha E. Anderson, Steven Jin, Julia H. Cochran, Jessica K. Simmons, Paul G. Pittman, Fu Li, Michelle L. Ulrich, Abbie Wong, Weiping Zeng, Robert P. Lyon, Peter D. Senter. Seattle Genetics, Bothell, WA</t>
+  </si>
+  <si>
+    <t>Michael J. Thwaites&lt;sup&gt;1&lt;/sup&gt;, Rene Figueredo&lt;sup&gt;2&lt;/sup&gt;, Gilles Tremblay&lt;sup&gt;1&lt;/sup&gt;, James Koropatnick&lt;sup&gt;2&lt;/sup&gt;, Victor Goldmacher&lt;sup&gt;1&lt;/sup&gt;, Maureen O’Connor-McCourt&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Forbius, Montréal, QC, Canada; &lt;sup&gt;2&lt;/sup&gt;University of Western Ontario, London, ON, Canada</t>
+  </si>
+  <si>
+    <t>Yingnan Si, Nghi Dang, Seulhee Kim, Lufang Zhou, Xiaosi Han, Runhua Liu, Xiaoguang (Margaret) Liu. The University of Alabama at Birmingham, Birmingham, AL</t>
+  </si>
+  <si>
+    <t>Cathy Chang, Gerhard Frey, Leslie Sharp, William (Bill) J. Boyle, Jing Wang, Charles Xing, Haizhen Liu, Christina Wheeler, Marlena Walls, Jay M. Short. BioAtla LLC, San Diego, CA</t>
+  </si>
+  <si>
+    <t>Kumiko Koyama, Yuuri Hashimoto, Yasuki Kamai, Yoshinobu Shiose, Manabu Abe, Yuki Kaneda, Naoyuki Maeda, Kenji Hirotani, Yusuke Ogitani, Tsuyoshi Karibe, Takashi Kagari, Kenichi Wakita, Suguru Ueno, Toshinori Agatsuma, Masato Murakami. Daiichi Sankyo Co., Ltd., Tokyo, Japan</t>
+  </si>
+  <si>
+    <t>Philipp Rene Spycher&lt;sup&gt;1&lt;/sup&gt;, Julia Carina Frei&lt;sup&gt;2&lt;/sup&gt;, Jöri Elias Wehrmüller&lt;sup&gt;2&lt;/sup&gt;, Isabella Attinger-toller&lt;sup&gt;1&lt;/sup&gt;, Dragan Grabulovski&lt;sup&gt;1&lt;/sup&gt;, Torsten Hechler&lt;sup&gt;3&lt;/sup&gt;, Michael Kulke&lt;sup&gt;3&lt;/sup&gt;, Andreas Pahl&lt;sup&gt;3&lt;/sup&gt;, Martin Behe&lt;sup&gt;2&lt;/sup&gt;, Roger Schibli&lt;sup&gt;2&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Araris Biotech AG, ETH Hönggerberg, Switzerland; &lt;sup&gt;2&lt;/sup&gt;Paul Scherrer Institut, Villigen PSI, Switzerland; &lt;sup&gt;3&lt;/sup&gt;Heidelberg Pharma Research GmbH, Ladenburg, Germany</t>
+  </si>
+  <si>
+    <t>Funda Meric-Bernstam&lt;sup&gt;1&lt;/sup&gt;, Valentina Boni&lt;sup&gt;2&lt;/sup&gt;, Alexander I. Spira&lt;sup&gt;3&lt;/sup&gt;, Rachel E. Sanborn&lt;sup&gt;4&lt;/sup&gt;, H-Tobias Arkenau&lt;sup&gt;5&lt;/sup&gt;, Randy Sweis&lt;sup&gt;6&lt;/sup&gt;, Howard Burris&lt;sup&gt;7&lt;/sup&gt;, Rachel Li&lt;sup&gt;8&lt;/sup&gt;, Sreeni Yalamanchili&lt;sup&gt;8&lt;/sup&gt;, Matthias Will&lt;sup&gt;8&lt;/sup&gt;, Joyce F. Liu&lt;sup&gt;9&lt;/sup&gt;, James J. Harding&lt;sup&gt;10&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;University of Texas, MD Anderson Cancer Center, Houston, TX; &lt;sup&gt;2&lt;/sup&gt;START Madrid-CIOCC,  Hm Hospital Sanchinarro, Madrid, Spain; &lt;sup&gt;3&lt;/sup&gt;Virginia Cancer Specialists, Fairfax, VA; &lt;sup&gt;4&lt;/sup&gt;Earle A. Chiles Research Institute,  Providence Cancer Institute, Portland, OR; &lt;sup&gt;5&lt;/sup&gt;Sarah Cannon Research Institute, London, United Kingdom; &lt;sup&gt;6&lt;/sup&gt;University of Chicago, Chicago, IL; &lt;sup&gt;7&lt;/sup&gt;Sarah Cannon Research Institute, Nashville, TN; &lt;sup&gt;8&lt;/sup&gt;CytomX Therapeutics, South San Francisco, CA; &lt;sup&gt;9&lt;/sup&gt;Dana-Farber Cancer Institute, Boston, MA; &lt;sup&gt;10&lt;/sup&gt;Memorial Sloan Kettering Cancer Center, New York, NY</t>
+  </si>
+  <si>
+    <t>Nirav N. Shah&lt;sup&gt;1&lt;/sup&gt;, Amrita Y. Krishnan&lt;sup&gt;2&lt;/sup&gt;, Nina D. Shah&lt;sup&gt;3&lt;/sup&gt;, John M. Burke&lt;sup&gt;4&lt;/sup&gt;, Jason M. Melear&lt;sup&gt;5&lt;/sup&gt;, Alexander I. Spira&lt;sup&gt;6&lt;/sup&gt;, Jonathan L. Kaufman&lt;sup&gt;7&lt;/sup&gt;, Jonathon B. Cohen&lt;sup&gt;7&lt;/sup&gt;, Ruben Niesvizky&lt;sup&gt;8&lt;/sup&gt;, Leslie L. Popplewell&lt;sup&gt;2&lt;/sup&gt;, Saurabh Chhabra&lt;sup&gt;1&lt;/sup&gt;, Jeff P. Sharman&lt;sup&gt;9&lt;/sup&gt;, Thomas G. Martin&lt;sup&gt;3&lt;/sup&gt;, Shannon L. Matheny&lt;sup&gt;10&lt;/sup&gt;, John P. Leonard&lt;sup&gt;8&lt;/sup&gt;, Arturo Molina&lt;sup&gt;10&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Medical College of Wisconsin, Milwaukee, WI; &lt;sup&gt;2&lt;/sup&gt;City of Hope, Duarte, CA; &lt;sup&gt;3&lt;/sup&gt;University of California, San Francisco, San Francisco, CA; &lt;sup&gt;4&lt;/sup&gt;Rocky Mountain Cancer Centers, Aurora, CO; &lt;sup&gt;5&lt;/sup&gt;Texas Oncology, Austin, TX; &lt;sup&gt;6&lt;/sup&gt;Virginia Cancer Specialists, Fairfax, VA; &lt;sup&gt;7&lt;/sup&gt;Winship Cancer Institute of Emory University, Atlanta, GA; &lt;sup&gt;8&lt;/sup&gt;New York Presbyterian Hospital-Cornell Campus, New York, NY; &lt;sup&gt;9&lt;/sup&gt;Willamette Valley Cancer Institute and Research Center, Eugene, OR; &lt;sup&gt;10&lt;/sup&gt;Sutro Biopharma, South San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Robert Wendel Naumann&lt;sup&gt;1&lt;/sup&gt;, Denise S. Uyar&lt;sup&gt;2&lt;/sup&gt;, Russell J. Schilder&lt;sup&gt;3&lt;/sup&gt;, Michael A. Palumbo&lt;sup&gt;4&lt;/sup&gt;, Venita DeAlmeida&lt;sup&gt;4&lt;/sup&gt;, Shannon L. Matheny&lt;sup&gt;4&lt;/sup&gt;, Arturo Molina&lt;sup&gt;4&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Levine Cancer Institute, Carolinas Medical Center, Charlotte, NC; &lt;sup&gt;2&lt;/sup&gt;Medical College of Wisconsin, Milwaukee, WI; &lt;sup&gt;3&lt;/sup&gt;Sidney Kimmel Cancer Center, Thomas Jefferson University, Philadelphia, PA; &lt;sup&gt;4&lt;/sup&gt;Sutro Biopharma, South San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Roger R. Beerli, Lorenz Waldmeier, Rémy Gébleux, Francesca Pretto, Ulf Grawunder. NBE-Therapeutics Ltd, Basel, Switzerland</t>
+  </si>
+  <si>
+    <t>Manabu Abe&lt;sup&gt;1&lt;/sup&gt;, Motoko Nagata&lt;sup&gt;1&lt;/sup&gt;, Kumiko Koyama&lt;sup&gt;1&lt;/sup&gt;, Satoru Yasuda&lt;sup&gt;1&lt;/sup&gt;, Tsuyoshi Hirata&lt;sup&gt;2&lt;/sup&gt;, Yusuke Kuwahara&lt;sup&gt;1&lt;/sup&gt;, Koichiro Inaki&lt;sup&gt;2&lt;/sup&gt;, Naomi Kasanuki&lt;sup&gt;2&lt;/sup&gt;, Megumi Minami&lt;sup&gt;2&lt;/sup&gt;, Katsunobu Hagihara&lt;sup&gt;1&lt;/sup&gt;, Chiaki Ishii&lt;sup&gt;1&lt;/sup&gt;, Yasuki Kamai&lt;sup&gt;1&lt;/sup&gt;, Kiyoshi Sugihara&lt;sup&gt;1&lt;/sup&gt;, Kenichi Wakita&lt;sup&gt;1&lt;/sup&gt;, Eric Slosberg&lt;sup&gt;3&lt;/sup&gt;, Masato Murakami&lt;sup&gt;1&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Daiichi Sankyo Co., Ltd., Tokyo, Japan; &lt;sup&gt;2&lt;/sup&gt;Daiichi Sankyo RD Novare, Tokyo, Japan; &lt;sup&gt;3&lt;/sup&gt;Daiichi Sankyo Inc., Basking Ridge, NJ</t>
+  </si>
+  <si>
+    <t>Shusen Wang&lt;sup&gt;1&lt;/sup&gt;, Fei Xu&lt;sup&gt;1&lt;/sup&gt;, Ruoxi Hong&lt;sup&gt;1&lt;/sup&gt;, Wen Xia&lt;sup&gt;1&lt;/sup&gt;, Jin-Chen Yu&lt;sup&gt;2&lt;/sup&gt;, Weijia Tang&lt;sup&gt;2&lt;/sup&gt;, Jin Wei&lt;sup&gt;2&lt;/sup&gt;, ShuQiang Song&lt;sup&gt;2&lt;/sup&gt;, Zhaohe Wang&lt;sup&gt;2&lt;/sup&gt;, Li Zhang&lt;sup&gt;3&lt;/sup&gt;, Shengfeng Li&lt;sup&gt;2&lt;/sup&gt;. &lt;sup&gt;1&lt;/sup&gt;Department of medical oncology, Sun Yat-Sen University Cancer Center, State Key Laboratory of Oncology in South China, Collaborative innovation center for Cancer Medicine, Guangzhou, China; &lt;sup&gt;2&lt;/sup&gt;Bio-thera Solutions Ltd, Guangzhou, China; &lt;sup&gt;3&lt;/sup&gt;Bio-thera Solutions Ltd, Boston, MA</t>
   </si>
 </sst>
 </file>
@@ -1851,52 +2613,88 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>303.0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K2" t="e">
         <v>#N/A</v>
       </c>
       <c r="L2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M2" t="e">
         <v>#N/A</v>
       </c>
       <c r="N2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="O2" t="s">
-        <v>505</v>
+        <v>511</v>
+      </c>
+      <c r="P2" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" t="s">
+        <v>665</v>
+      </c>
+      <c r="S2" t="s">
+        <v>707</v>
+      </c>
+      <c r="T2" t="s">
+        <v>738</v>
+      </c>
+      <c r="U2" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="3">
@@ -1904,46 +2702,64 @@
         <v>350.0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="J3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K3" t="e">
         <v>#N/A</v>
       </c>
       <c r="L3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M3" t="e">
         <v>#N/A</v>
       </c>
       <c r="N3" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="O3" t="s">
-        <v>506</v>
+        <v>512</v>
+      </c>
+      <c r="P3" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>589</v>
+      </c>
+      <c r="R3" t="s">
+        <v>666</v>
+      </c>
+      <c r="S3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T3" t="s">
+        <v>739</v>
+      </c>
+      <c r="U3" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="4">
@@ -1951,46 +2767,64 @@
         <v>590.0</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="J4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K4" t="e">
         <v>#N/A</v>
       </c>
       <c r="L4" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M4" t="e">
         <v>#N/A</v>
       </c>
       <c r="N4" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="O4" t="s">
-        <v>507</v>
+        <v>513</v>
+      </c>
+      <c r="P4" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>623</v>
+      </c>
+      <c r="R4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U4" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="5">
@@ -1998,46 +2832,64 @@
         <v>732.0</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="J5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K5" t="e">
         <v>#N/A</v>
       </c>
       <c r="L5" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M5" t="e">
         <v>#N/A</v>
       </c>
       <c r="N5" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="O5" t="s">
-        <v>508</v>
+        <v>514</v>
+      </c>
+      <c r="P5" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" t="s">
+        <v>667</v>
+      </c>
+      <c r="S5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T5" t="s">
+        <v>593</v>
+      </c>
+      <c r="U5" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="6">
@@ -2045,46 +2897,64 @@
         <v>739.0</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="J6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K6" t="e">
         <v>#N/A</v>
       </c>
       <c r="L6" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M6" t="e">
         <v>#N/A</v>
       </c>
       <c r="N6" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="O6" t="s">
-        <v>509</v>
+        <v>515</v>
+      </c>
+      <c r="P6" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>624</v>
+      </c>
+      <c r="R6" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" t="s">
+        <v>708</v>
+      </c>
+      <c r="T6" t="s">
+        <v>603</v>
+      </c>
+      <c r="U6" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="7">
@@ -2092,46 +2962,64 @@
         <v>813.0</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="J7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K7" t="e">
         <v>#N/A</v>
       </c>
       <c r="L7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M7" t="e">
         <v>#N/A</v>
       </c>
       <c r="N7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="O7" t="s">
-        <v>510</v>
+        <v>516</v>
+      </c>
+      <c r="P7" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>625</v>
+      </c>
+      <c r="R7" t="s">
+        <v>662</v>
+      </c>
+      <c r="S7" t="s">
+        <v>709</v>
+      </c>
+      <c r="T7" t="s">
+        <v>602</v>
+      </c>
+      <c r="U7" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="8">
@@ -2139,46 +3027,64 @@
         <v>910.0</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="J8" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K8" t="e">
         <v>#N/A</v>
       </c>
       <c r="L8" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M8" t="e">
         <v>#N/A</v>
       </c>
       <c r="N8" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="O8" t="s">
-        <v>511</v>
+        <v>517</v>
+      </c>
+      <c r="P8" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>626</v>
+      </c>
+      <c r="R8" t="s">
+        <v>668</v>
+      </c>
+      <c r="S8" t="s">
+        <v>710</v>
+      </c>
+      <c r="T8" t="s">
+        <v>740</v>
+      </c>
+      <c r="U8" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="9">
@@ -2186,46 +3092,64 @@
         <v>921.0</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="J9" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K9" t="e">
         <v>#N/A</v>
       </c>
       <c r="L9" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M9" t="e">
         <v>#N/A</v>
       </c>
       <c r="N9" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="O9" t="s">
-        <v>512</v>
+        <v>518</v>
+      </c>
+      <c r="P9" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>589</v>
+      </c>
+      <c r="R9" t="s">
+        <v>667</v>
+      </c>
+      <c r="S9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T9" t="s">
+        <v>739</v>
+      </c>
+      <c r="U9" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="10">
@@ -2233,46 +3157,64 @@
         <v>999.0</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J10" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K10" t="e">
         <v>#N/A</v>
       </c>
       <c r="L10" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M10" t="e">
         <v>#N/A</v>
       </c>
       <c r="N10" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="O10" t="s">
-        <v>513</v>
+        <v>519</v>
+      </c>
+      <c r="P10" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T10" t="s">
+        <v>688</v>
+      </c>
+      <c r="U10" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="11">
@@ -2280,46 +3222,64 @@
         <v>1041.0</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I11" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="J11" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K11" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L11" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M11" t="e">
         <v>#N/A</v>
       </c>
       <c r="N11" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="O11" t="s">
-        <v>514</v>
+        <v>520</v>
+      </c>
+      <c r="P11" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>627</v>
+      </c>
+      <c r="R11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T11" t="s">
+        <v>656</v>
+      </c>
+      <c r="U11" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="12">
@@ -2327,46 +3287,64 @@
         <v>1082.0</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H12" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I12" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="J12" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K12" t="e">
         <v>#N/A</v>
       </c>
       <c r="L12" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M12" t="e">
         <v>#N/A</v>
       </c>
       <c r="N12" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="O12" t="s">
-        <v>515</v>
+        <v>521</v>
+      </c>
+      <c r="P12" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>114</v>
+      </c>
+      <c r="R12" t="s">
+        <v>651</v>
+      </c>
+      <c r="S12" t="s">
+        <v>711</v>
+      </c>
+      <c r="T12" t="s">
+        <v>656</v>
+      </c>
+      <c r="U12" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="13">
@@ -2374,46 +3352,64 @@
         <v>1221.0</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I13" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J13" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K13" t="e">
         <v>#N/A</v>
       </c>
       <c r="L13" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M13" t="e">
         <v>#N/A</v>
       </c>
       <c r="N13" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="O13" t="s">
-        <v>516</v>
+        <v>522</v>
+      </c>
+      <c r="P13" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>628</v>
+      </c>
+      <c r="R13" t="s">
+        <v>669</v>
+      </c>
+      <c r="S13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T13" t="s">
+        <v>741</v>
+      </c>
+      <c r="U13" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="14">
@@ -2421,46 +3417,64 @@
         <v>1296.0</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I14" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="J14" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K14" t="e">
         <v>#N/A</v>
       </c>
       <c r="L14" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M14" t="e">
         <v>#N/A</v>
       </c>
       <c r="N14" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="O14" t="s">
-        <v>517</v>
+        <v>523</v>
+      </c>
+      <c r="P14" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>620</v>
+      </c>
+      <c r="R14" t="s">
+        <v>670</v>
+      </c>
+      <c r="S14" t="s">
+        <v>712</v>
+      </c>
+      <c r="T14" t="s">
+        <v>593</v>
+      </c>
+      <c r="U14" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="15">
@@ -2468,46 +3482,64 @@
         <v>1329.0</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H15" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I15" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="J15" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K15" t="e">
         <v>#N/A</v>
       </c>
       <c r="L15" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M15" t="e">
         <v>#N/A</v>
       </c>
       <c r="N15" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="O15" t="s">
-        <v>518</v>
+        <v>524</v>
+      </c>
+      <c r="P15" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>629</v>
+      </c>
+      <c r="R15" t="s">
+        <v>671</v>
+      </c>
+      <c r="S15" t="s">
+        <v>624</v>
+      </c>
+      <c r="T15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U15" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="16">
@@ -2515,46 +3547,64 @@
         <v>1334.0</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H16" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I16" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="J16" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K16" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L16" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M16" t="e">
         <v>#N/A</v>
       </c>
       <c r="N16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="O16" t="s">
-        <v>519</v>
+        <v>525</v>
+      </c>
+      <c r="P16" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>114</v>
+      </c>
+      <c r="R16" t="s">
+        <v>672</v>
+      </c>
+      <c r="S16" t="s">
+        <v>597</v>
+      </c>
+      <c r="T16" t="s">
+        <v>615</v>
+      </c>
+      <c r="U16" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="17">
@@ -2562,46 +3612,64 @@
         <v>1439.0</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H17" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I17" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K17" t="e">
         <v>#N/A</v>
       </c>
       <c r="L17" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M17" t="e">
         <v>#N/A</v>
       </c>
       <c r="N17" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="O17" t="s">
-        <v>520</v>
+        <v>526</v>
+      </c>
+      <c r="P17" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>630</v>
+      </c>
+      <c r="R17" t="s">
+        <v>673</v>
+      </c>
+      <c r="S17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U17" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="18">
@@ -2609,46 +3677,64 @@
         <v>1564.0</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H18" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J18" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K18" t="e">
         <v>#N/A</v>
       </c>
       <c r="L18" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="M18" t="e">
         <v>#N/A</v>
       </c>
       <c r="N18" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="O18" t="s">
-        <v>521</v>
+        <v>527</v>
+      </c>
+      <c r="P18" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>631</v>
+      </c>
+      <c r="R18" t="s">
+        <v>674</v>
+      </c>
+      <c r="S18" t="s">
+        <v>589</v>
+      </c>
+      <c r="T18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U18" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="19">
@@ -2656,46 +3742,64 @@
         <v>1663.0</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K19" t="e">
         <v>#N/A</v>
       </c>
       <c r="L19" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M19" t="e">
         <v>#N/A</v>
       </c>
       <c r="N19" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="O19" t="s">
-        <v>522</v>
+        <v>528</v>
+      </c>
+      <c r="P19" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>632</v>
+      </c>
+      <c r="R19" t="s">
+        <v>660</v>
+      </c>
+      <c r="S19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U19" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="20">
@@ -2703,46 +3807,64 @@
         <v>1754.0</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H20" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K20" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L20" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M20" t="e">
         <v>#N/A</v>
       </c>
       <c r="N20" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="O20" t="s">
-        <v>523</v>
+        <v>529</v>
+      </c>
+      <c r="P20" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>633</v>
+      </c>
+      <c r="R20" t="s">
+        <v>675</v>
+      </c>
+      <c r="S20" t="s">
+        <v>691</v>
+      </c>
+      <c r="T20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U20" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="21">
@@ -2750,46 +3872,64 @@
         <v>1854.0</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H21" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K21" t="e">
         <v>#N/A</v>
       </c>
       <c r="L21" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M21" t="e">
         <v>#N/A</v>
       </c>
       <c r="N21" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="O21" t="s">
-        <v>524</v>
+        <v>530</v>
+      </c>
+      <c r="P21" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>634</v>
+      </c>
+      <c r="R21" t="s">
+        <v>659</v>
+      </c>
+      <c r="S21" t="s">
+        <v>713</v>
+      </c>
+      <c r="T21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U21" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="22">
@@ -2797,46 +3937,64 @@
         <v>1886.0</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K22" t="e">
         <v>#N/A</v>
       </c>
       <c r="L22" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M22" t="e">
         <v>#N/A</v>
       </c>
       <c r="N22" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="O22" t="s">
-        <v>525</v>
+        <v>531</v>
+      </c>
+      <c r="P22" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>635</v>
+      </c>
+      <c r="R22" t="s">
+        <v>676</v>
+      </c>
+      <c r="S22" t="s">
+        <v>632</v>
+      </c>
+      <c r="T22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U22" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="23">
@@ -2844,46 +4002,64 @@
         <v>1921.0</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H23" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K23" t="e">
         <v>#N/A</v>
       </c>
       <c r="L23" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M23" t="e">
         <v>#N/A</v>
       </c>
       <c r="N23" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="O23" t="s">
-        <v>526</v>
+        <v>532</v>
+      </c>
+      <c r="P23" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>636</v>
+      </c>
+      <c r="R23" t="s">
+        <v>677</v>
+      </c>
+      <c r="S23" t="s">
+        <v>589</v>
+      </c>
+      <c r="T23" t="s">
+        <v>742</v>
+      </c>
+      <c r="U23" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="24">
@@ -2891,46 +4067,64 @@
         <v>1924.0</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K24" t="e">
         <v>#N/A</v>
       </c>
       <c r="L24" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M24" t="e">
         <v>#N/A</v>
       </c>
       <c r="N24" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="O24" t="s">
-        <v>527</v>
+        <v>533</v>
+      </c>
+      <c r="P24" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>637</v>
+      </c>
+      <c r="R24" t="s">
+        <v>678</v>
+      </c>
+      <c r="S24" t="s">
+        <v>647</v>
+      </c>
+      <c r="T24" t="s">
+        <v>743</v>
+      </c>
+      <c r="U24" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="25">
@@ -2938,46 +4132,64 @@
         <v>1932.0</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H25" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J25" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K25" t="e">
         <v>#N/A</v>
       </c>
       <c r="L25" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M25" t="e">
         <v>#N/A</v>
       </c>
       <c r="N25" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="O25" t="s">
-        <v>528</v>
+        <v>534</v>
+      </c>
+      <c r="P25" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>638</v>
+      </c>
+      <c r="R25" t="s">
+        <v>679</v>
+      </c>
+      <c r="S25" t="s">
+        <v>632</v>
+      </c>
+      <c r="T25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U25" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="26">
@@ -2985,46 +4197,64 @@
         <v>1956.0</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H26" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J26" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L26" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M26" t="e">
         <v>#N/A</v>
       </c>
       <c r="N26" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="O26" t="s">
-        <v>529</v>
+        <v>535</v>
+      </c>
+      <c r="P26" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>592</v>
+      </c>
+      <c r="R26" t="s">
+        <v>633</v>
+      </c>
+      <c r="S26" t="s">
+        <v>714</v>
+      </c>
+      <c r="T26" t="s">
+        <v>739</v>
+      </c>
+      <c r="U26" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="27">
@@ -3032,46 +4262,64 @@
         <v>1960.0</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H27" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J27" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K27" t="e">
         <v>#N/A</v>
       </c>
       <c r="L27" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M27" t="e">
         <v>#N/A</v>
       </c>
       <c r="N27" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="O27" t="s">
-        <v>530</v>
+        <v>536</v>
+      </c>
+      <c r="P27" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>107</v>
+      </c>
+      <c r="R27" t="s">
+        <v>680</v>
+      </c>
+      <c r="S27" t="s">
+        <v>715</v>
+      </c>
+      <c r="T27" t="s">
+        <v>593</v>
+      </c>
+      <c r="U27" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="28">
@@ -3079,46 +4327,64 @@
         <v>2160.0</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H28" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I28" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J28" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K28" t="e">
         <v>#N/A</v>
       </c>
       <c r="L28" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M28" t="e">
         <v>#N/A</v>
       </c>
       <c r="N28" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="O28" t="s">
-        <v>531</v>
+        <v>537</v>
+      </c>
+      <c r="P28" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>606</v>
+      </c>
+      <c r="R28" t="s">
+        <v>660</v>
+      </c>
+      <c r="S28" t="s">
+        <v>716</v>
+      </c>
+      <c r="T28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U28" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="29">
@@ -3126,46 +4392,64 @@
         <v>2174.0</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H29" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I29" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="J29" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K29" t="e">
         <v>#N/A</v>
       </c>
       <c r="L29" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M29" t="e">
         <v>#N/A</v>
       </c>
       <c r="N29" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="O29" t="s">
-        <v>532</v>
+        <v>538</v>
+      </c>
+      <c r="P29" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>639</v>
+      </c>
+      <c r="R29" t="s">
+        <v>653</v>
+      </c>
+      <c r="S29" t="s">
+        <v>717</v>
+      </c>
+      <c r="T29" t="s">
+        <v>744</v>
+      </c>
+      <c r="U29" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="30">
@@ -3173,46 +4457,64 @@
         <v>2375.0</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F30" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G30" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I30" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J30" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K30" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L30" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M30" t="e">
         <v>#N/A</v>
       </c>
       <c r="N30" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="O30" t="s">
-        <v>533</v>
+        <v>539</v>
+      </c>
+      <c r="P30" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>640</v>
+      </c>
+      <c r="R30" t="s">
+        <v>681</v>
+      </c>
+      <c r="S30" t="s">
+        <v>718</v>
+      </c>
+      <c r="T30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U30" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="31">
@@ -3220,46 +4522,64 @@
         <v>2419.0</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G31" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H31" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I31" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J31" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L31" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M31" t="e">
         <v>#N/A</v>
       </c>
       <c r="N31" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O31" t="s">
-        <v>534</v>
+        <v>540</v>
+      </c>
+      <c r="P31" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>594</v>
+      </c>
+      <c r="R31" t="s">
+        <v>589</v>
+      </c>
+      <c r="S31" t="s">
+        <v>719</v>
+      </c>
+      <c r="T31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U31" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="32">
@@ -3267,46 +4587,64 @@
         <v>2439.0</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G32" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H32" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I32" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J32" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L32" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M32" t="e">
         <v>#N/A</v>
       </c>
       <c r="N32" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O32" t="s">
-        <v>535</v>
+        <v>541</v>
+      </c>
+      <c r="P32" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>641</v>
+      </c>
+      <c r="R32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T32" t="s">
+        <v>593</v>
+      </c>
+      <c r="U32" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="33">
@@ -3314,46 +4652,64 @@
         <v>2452.0</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G33" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H33" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I33" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="J33" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K33" t="e">
         <v>#N/A</v>
       </c>
       <c r="L33" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M33" t="e">
         <v>#N/A</v>
       </c>
       <c r="N33" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O33" t="s">
-        <v>536</v>
+        <v>542</v>
+      </c>
+      <c r="P33" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>642</v>
+      </c>
+      <c r="R33" t="s">
+        <v>682</v>
+      </c>
+      <c r="S33" t="s">
+        <v>650</v>
+      </c>
+      <c r="T33" t="s">
+        <v>745</v>
+      </c>
+      <c r="U33" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="34">
@@ -3361,46 +4717,64 @@
         <v>2513.0</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H34" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I34" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J34" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K34" t="e">
         <v>#N/A</v>
       </c>
       <c r="L34" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M34" t="e">
         <v>#N/A</v>
       </c>
       <c r="N34" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="O34" t="s">
-        <v>537</v>
+        <v>543</v>
+      </c>
+      <c r="P34" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>643</v>
+      </c>
+      <c r="R34" t="s">
+        <v>657</v>
+      </c>
+      <c r="S34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T34" t="s">
+        <v>602</v>
+      </c>
+      <c r="U34" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="35">
@@ -3408,46 +4782,64 @@
         <v>2649.0</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F35" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H35" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I35" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J35" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K35" t="e">
         <v>#N/A</v>
       </c>
       <c r="L35" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M35" t="e">
         <v>#N/A</v>
       </c>
       <c r="N35" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="O35" t="s">
-        <v>538</v>
+        <v>544</v>
+      </c>
+      <c r="P35" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>622</v>
+      </c>
+      <c r="R35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S35" t="s">
+        <v>720</v>
+      </c>
+      <c r="T35" t="s">
+        <v>745</v>
+      </c>
+      <c r="U35" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="36">
@@ -3455,46 +4847,64 @@
         <v>2717.0</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F36" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G36" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H36" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I36" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J36" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K36" t="e">
         <v>#N/A</v>
       </c>
       <c r="L36" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M36" t="e">
         <v>#N/A</v>
       </c>
       <c r="N36" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="O36" t="s">
-        <v>539</v>
+        <v>545</v>
+      </c>
+      <c r="P36" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>107</v>
+      </c>
+      <c r="R36" t="s">
+        <v>683</v>
+      </c>
+      <c r="S36" t="s">
+        <v>641</v>
+      </c>
+      <c r="T36" t="s">
+        <v>603</v>
+      </c>
+      <c r="U36" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="37">
@@ -3502,46 +4912,64 @@
         <v>2749.0</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F37" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H37" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I37" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="J37" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K37" t="e">
         <v>#N/A</v>
       </c>
       <c r="L37" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M37" t="e">
         <v>#N/A</v>
       </c>
       <c r="N37" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="O37" t="s">
-        <v>540</v>
+        <v>546</v>
+      </c>
+      <c r="P37" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>589</v>
+      </c>
+      <c r="R37" t="s">
+        <v>684</v>
+      </c>
+      <c r="S37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T37" t="s">
+        <v>746</v>
+      </c>
+      <c r="U37" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="38">
@@ -3549,46 +4977,64 @@
         <v>2766.0</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" t="s">
         <v>165</v>
       </c>
-      <c r="G38" t="s">
-        <v>159</v>
-      </c>
       <c r="H38" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I38" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J38" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K38" t="e">
         <v>#N/A</v>
       </c>
       <c r="L38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="M38" t="e">
         <v>#N/A</v>
       </c>
       <c r="N38" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="O38" t="s">
-        <v>541</v>
+        <v>547</v>
+      </c>
+      <c r="P38" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>644</v>
+      </c>
+      <c r="R38" t="s">
+        <v>685</v>
+      </c>
+      <c r="S38" t="s">
+        <v>647</v>
+      </c>
+      <c r="T38" t="s">
+        <v>747</v>
+      </c>
+      <c r="U38" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="39">
@@ -3596,46 +5042,64 @@
         <v>2903.0</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G39" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H39" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I39" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J39" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K39" t="e">
         <v>#N/A</v>
       </c>
       <c r="L39" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M39" t="e">
         <v>#N/A</v>
       </c>
       <c r="N39" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="O39" t="s">
-        <v>542</v>
+        <v>548</v>
+      </c>
+      <c r="P39" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>645</v>
+      </c>
+      <c r="R39" t="s">
+        <v>686</v>
+      </c>
+      <c r="S39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U39" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="40">
@@ -3643,46 +5107,64 @@
         <v>3002.0</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G40" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H40" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I40" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="J40" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K40" t="e">
         <v>#N/A</v>
       </c>
       <c r="L40" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M40" t="e">
         <v>#N/A</v>
       </c>
       <c r="N40" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="O40" t="s">
-        <v>543</v>
+        <v>549</v>
+      </c>
+      <c r="P40" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>646</v>
+      </c>
+      <c r="R40" t="s">
+        <v>107</v>
+      </c>
+      <c r="S40" t="s">
+        <v>721</v>
+      </c>
+      <c r="T40" t="s">
+        <v>593</v>
+      </c>
+      <c r="U40" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="41">
@@ -3690,46 +5172,64 @@
         <v>3104.0</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G41" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H41" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I41" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J41" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K41" t="e">
         <v>#N/A</v>
       </c>
       <c r="L41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M41" t="e">
         <v>#N/A</v>
       </c>
       <c r="N41" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="O41" t="s">
-        <v>544</v>
+        <v>550</v>
+      </c>
+      <c r="P41" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>616</v>
+      </c>
+      <c r="R41" t="s">
+        <v>660</v>
+      </c>
+      <c r="S41" t="s">
+        <v>722</v>
+      </c>
+      <c r="T41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U41" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="42">
@@ -3737,46 +5237,64 @@
         <v>3113.0</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" t="s">
         <v>165</v>
       </c>
-      <c r="G42" t="s">
-        <v>159</v>
-      </c>
       <c r="H42" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I42" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J42" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K42" t="e">
         <v>#N/A</v>
       </c>
       <c r="L42" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="M42" t="e">
         <v>#N/A</v>
       </c>
       <c r="N42" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="O42" t="s">
-        <v>545</v>
+        <v>551</v>
+      </c>
+      <c r="P42" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>647</v>
+      </c>
+      <c r="R42" t="s">
+        <v>107</v>
+      </c>
+      <c r="S42" t="s">
+        <v>698</v>
+      </c>
+      <c r="T42" t="s">
+        <v>593</v>
+      </c>
+      <c r="U42" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="43">
@@ -3784,46 +5302,64 @@
         <v>3120.0</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F43" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G43" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H43" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I43" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J43" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K43" t="e">
         <v>#N/A</v>
       </c>
       <c r="L43" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M43" t="e">
         <v>#N/A</v>
       </c>
       <c r="N43" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="O43" t="s">
-        <v>546</v>
+        <v>552</v>
+      </c>
+      <c r="P43" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>627</v>
+      </c>
+      <c r="R43" t="s">
+        <v>589</v>
+      </c>
+      <c r="S43" t="s">
+        <v>723</v>
+      </c>
+      <c r="T43" t="s">
+        <v>748</v>
+      </c>
+      <c r="U43" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="44">
@@ -3831,46 +5367,64 @@
         <v>3125.0</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F44" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G44" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H44" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I44" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="J44" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K44" t="e">
         <v>#N/A</v>
       </c>
       <c r="L44" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="M44" t="e">
         <v>#N/A</v>
       </c>
       <c r="N44" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="O44" t="s">
-        <v>547</v>
+        <v>553</v>
+      </c>
+      <c r="P44" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>118</v>
+      </c>
+      <c r="R44" t="s">
+        <v>687</v>
+      </c>
+      <c r="S44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T44" t="s">
+        <v>747</v>
+      </c>
+      <c r="U44" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="45">
@@ -3878,46 +5432,64 @@
         <v>3210.0</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G45" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H45" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I45" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J45" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K45" t="e">
         <v>#N/A</v>
       </c>
       <c r="L45" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M45" t="e">
         <v>#N/A</v>
       </c>
       <c r="N45" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="O45" t="s">
-        <v>548</v>
+        <v>554</v>
+      </c>
+      <c r="P45" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>603</v>
+      </c>
+      <c r="R45" t="s">
+        <v>688</v>
+      </c>
+      <c r="S45" t="s">
+        <v>627</v>
+      </c>
+      <c r="T45" t="s">
+        <v>603</v>
+      </c>
+      <c r="U45" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="46">
@@ -3925,46 +5497,64 @@
         <v>3230.0</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" t="s">
         <v>165</v>
       </c>
-      <c r="G46" t="s">
-        <v>159</v>
-      </c>
       <c r="H46" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I46" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="J46" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K46" t="e">
         <v>#N/A</v>
       </c>
       <c r="L46" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M46" t="e">
         <v>#N/A</v>
       </c>
       <c r="N46" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="O46" t="s">
-        <v>549</v>
+        <v>555</v>
+      </c>
+      <c r="P46" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>107</v>
+      </c>
+      <c r="R46" t="s">
+        <v>689</v>
+      </c>
+      <c r="S46" t="s">
+        <v>724</v>
+      </c>
+      <c r="T46" t="s">
+        <v>593</v>
+      </c>
+      <c r="U46" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="47">
@@ -3972,46 +5562,64 @@
         <v>3239.0</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F47" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G47" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H47" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I47" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="J47" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K47" t="e">
         <v>#N/A</v>
       </c>
       <c r="L47" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M47" t="e">
         <v>#N/A</v>
       </c>
       <c r="N47" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="O47" t="s">
-        <v>550</v>
+        <v>556</v>
+      </c>
+      <c r="P47" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>648</v>
+      </c>
+      <c r="R47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U47" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="48">
@@ -4019,46 +5627,64 @@
         <v>3382.0</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F48" t="s">
+        <v>171</v>
+      </c>
+      <c r="G48" t="s">
         <v>165</v>
       </c>
-      <c r="G48" t="s">
-        <v>159</v>
-      </c>
       <c r="H48" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I48" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J48" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K48" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="M48" t="e">
         <v>#N/A</v>
       </c>
       <c r="N48" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="O48" t="s">
-        <v>551</v>
+        <v>557</v>
+      </c>
+      <c r="P48" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>596</v>
+      </c>
+      <c r="R48" t="s">
+        <v>690</v>
+      </c>
+      <c r="S48" t="s">
+        <v>725</v>
+      </c>
+      <c r="T48" t="s">
+        <v>602</v>
+      </c>
+      <c r="U48" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="49">
@@ -4066,46 +5692,64 @@
         <v>3405.0</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G49" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H49" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I49" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J49" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K49" t="e">
         <v>#N/A</v>
       </c>
       <c r="L49" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M49" t="e">
         <v>#N/A</v>
       </c>
       <c r="N49" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="O49" t="s">
-        <v>552</v>
+        <v>558</v>
+      </c>
+      <c r="P49" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>589</v>
+      </c>
+      <c r="R49" t="s">
+        <v>590</v>
+      </c>
+      <c r="S49" t="s">
+        <v>660</v>
+      </c>
+      <c r="T49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U49" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="50">
@@ -4113,46 +5757,64 @@
         <v>3458.0</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F50" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G50" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H50" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I50" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J50" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K50" t="e">
         <v>#N/A</v>
       </c>
       <c r="L50" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M50" t="e">
         <v>#N/A</v>
       </c>
       <c r="N50" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="O50" t="s">
-        <v>553</v>
+        <v>559</v>
+      </c>
+      <c r="P50" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>622</v>
+      </c>
+      <c r="R50" t="s">
+        <v>614</v>
+      </c>
+      <c r="S50" t="s">
+        <v>726</v>
+      </c>
+      <c r="T50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U50" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="51">
@@ -4160,46 +5822,64 @@
         <v>3546.0</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H51" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I51" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="J51" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K51" t="e">
         <v>#N/A</v>
       </c>
       <c r="L51" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M51" t="e">
         <v>#N/A</v>
       </c>
       <c r="N51" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="O51" t="s">
-        <v>554</v>
+        <v>560</v>
+      </c>
+      <c r="P51" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>649</v>
+      </c>
+      <c r="R51" t="s">
+        <v>691</v>
+      </c>
+      <c r="S51" t="s">
+        <v>650</v>
+      </c>
+      <c r="T51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U51" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="52">
@@ -4207,46 +5887,64 @@
         <v>3661.0</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F52" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G52" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H52" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I52" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="J52" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K52" t="e">
         <v>#N/A</v>
       </c>
       <c r="L52" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M52" t="e">
         <v>#N/A</v>
       </c>
       <c r="N52" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="O52" t="s">
-        <v>555</v>
+        <v>561</v>
+      </c>
+      <c r="P52" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>133</v>
+      </c>
+      <c r="R52" t="s">
+        <v>587</v>
+      </c>
+      <c r="S52" t="s">
+        <v>727</v>
+      </c>
+      <c r="T52" t="s">
+        <v>745</v>
+      </c>
+      <c r="U52" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="53">
@@ -4254,46 +5952,64 @@
         <v>3676.0</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F53" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G53" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H53" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I53" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="J53" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K53" t="e">
         <v>#N/A</v>
       </c>
       <c r="L53" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M53" t="e">
         <v>#N/A</v>
       </c>
       <c r="N53" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="O53" t="s">
-        <v>556</v>
+        <v>562</v>
+      </c>
+      <c r="P53" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>589</v>
+      </c>
+      <c r="R53" t="s">
+        <v>603</v>
+      </c>
+      <c r="S53" t="s">
+        <v>728</v>
+      </c>
+      <c r="T53" t="s">
+        <v>603</v>
+      </c>
+      <c r="U53" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="54">
@@ -4301,46 +6017,64 @@
         <v>3710.0</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H54" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I54" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="J54" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K54" t="e">
         <v>#N/A</v>
       </c>
       <c r="L54" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M54" t="e">
         <v>#N/A</v>
       </c>
       <c r="N54" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="O54" t="s">
-        <v>557</v>
+        <v>563</v>
+      </c>
+      <c r="P54" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>650</v>
+      </c>
+      <c r="R54" t="s">
+        <v>691</v>
+      </c>
+      <c r="S54" t="s">
+        <v>711</v>
+      </c>
+      <c r="T54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U54" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="55">
@@ -4348,46 +6082,64 @@
         <v>3732.0</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F55" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G55" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H55" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I55" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="J55" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K55" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L55" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M55" t="e">
         <v>#N/A</v>
       </c>
       <c r="N55" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="O55" t="s">
-        <v>558</v>
+        <v>564</v>
+      </c>
+      <c r="P55" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>651</v>
+      </c>
+      <c r="R55" t="s">
+        <v>692</v>
+      </c>
+      <c r="S55" t="s">
+        <v>633</v>
+      </c>
+      <c r="T55" t="s">
+        <v>738</v>
+      </c>
+      <c r="U55" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="56">
@@ -4395,46 +6147,64 @@
         <v>3751.0</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F56" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G56" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H56" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I56" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J56" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K56" t="e">
         <v>#N/A</v>
       </c>
       <c r="L56" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M56" t="e">
         <v>#N/A</v>
       </c>
       <c r="N56" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="O56" t="s">
-        <v>559</v>
+        <v>565</v>
+      </c>
+      <c r="P56" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T56" t="s">
+        <v>748</v>
+      </c>
+      <c r="U56" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="57">
@@ -4442,46 +6212,64 @@
         <v>3771.0</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F57" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G57" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H57" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I57" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J57" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K57" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L57" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M57" t="e">
         <v>#N/A</v>
       </c>
       <c r="N57" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="O57" t="s">
-        <v>560</v>
+        <v>566</v>
+      </c>
+      <c r="P57" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>652</v>
+      </c>
+      <c r="R57" t="s">
+        <v>693</v>
+      </c>
+      <c r="S57" t="s">
+        <v>599</v>
+      </c>
+      <c r="T57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U57" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="58">
@@ -4489,46 +6277,64 @@
         <v>3775.0</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F58" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G58" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H58" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I58" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J58" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K58" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L58" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M58" t="e">
         <v>#N/A</v>
       </c>
       <c r="N58" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="O58" t="s">
-        <v>561</v>
+        <v>567</v>
+      </c>
+      <c r="P58" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>589</v>
+      </c>
+      <c r="R58" t="s">
+        <v>694</v>
+      </c>
+      <c r="S58" t="s">
+        <v>729</v>
+      </c>
+      <c r="T58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U58" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="59">
@@ -4536,46 +6342,64 @@
         <v>3832.0</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F59" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G59" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H59" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I59" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J59" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K59" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L59" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="M59" t="e">
         <v>#N/A</v>
       </c>
       <c r="N59" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="O59" t="s">
-        <v>562</v>
+        <v>568</v>
+      </c>
+      <c r="P59" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>615</v>
+      </c>
+      <c r="R59" t="s">
+        <v>656</v>
+      </c>
+      <c r="S59" t="s">
+        <v>593</v>
+      </c>
+      <c r="T59" t="s">
+        <v>748</v>
+      </c>
+      <c r="U59" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="60">
@@ -4583,46 +6407,64 @@
         <v>3948.0</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D60" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G60" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H60" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I60" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J60" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K60" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L60" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M60" t="e">
         <v>#N/A</v>
       </c>
       <c r="N60" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="O60" t="s">
-        <v>563</v>
+        <v>569</v>
+      </c>
+      <c r="P60" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>653</v>
+      </c>
+      <c r="R60" t="s">
+        <v>593</v>
+      </c>
+      <c r="S60" t="s">
+        <v>591</v>
+      </c>
+      <c r="T60" t="s">
+        <v>749</v>
+      </c>
+      <c r="U60" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="61">
@@ -4630,46 +6472,64 @@
         <v>4065.0</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F61" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G61" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H61" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I61" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="J61" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K61" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L61" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M61" t="e">
         <v>#N/A</v>
       </c>
       <c r="N61" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="O61" t="s">
-        <v>564</v>
+        <v>570</v>
+      </c>
+      <c r="P61" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>654</v>
+      </c>
+      <c r="R61" t="s">
+        <v>695</v>
+      </c>
+      <c r="S61" t="s">
+        <v>730</v>
+      </c>
+      <c r="T61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U61" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="62">
@@ -4677,46 +6537,64 @@
         <v>4222.0</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F62" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G62" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H62" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I62" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J62" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K62" t="e">
         <v>#N/A</v>
       </c>
       <c r="L62" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M62" t="e">
         <v>#N/A</v>
       </c>
       <c r="N62" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="O62" t="s">
-        <v>565</v>
+        <v>571</v>
+      </c>
+      <c r="P62" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>589</v>
+      </c>
+      <c r="R62" t="s">
+        <v>696</v>
+      </c>
+      <c r="S62" t="s">
+        <v>731</v>
+      </c>
+      <c r="T62" t="s">
+        <v>717</v>
+      </c>
+      <c r="U62" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="63">
@@ -4724,46 +6602,64 @@
         <v>4445.0</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F63" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G63" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H63" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I63" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J63" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K63" t="e">
         <v>#N/A</v>
       </c>
       <c r="L63" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M63" t="e">
         <v>#N/A</v>
       </c>
       <c r="N63" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="O63" t="s">
-        <v>566</v>
+        <v>572</v>
+      </c>
+      <c r="P63" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>589</v>
+      </c>
+      <c r="R63" t="s">
+        <v>697</v>
+      </c>
+      <c r="S63" t="s">
+        <v>732</v>
+      </c>
+      <c r="T63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U63" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="64">
@@ -4771,46 +6667,64 @@
         <v>4539.0</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F64" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G64" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H64" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I64" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J64" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K64" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L64" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="M64" t="e">
         <v>#N/A</v>
       </c>
       <c r="N64" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="O64" t="s">
-        <v>567</v>
+        <v>573</v>
+      </c>
+      <c r="P64" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>655</v>
+      </c>
+      <c r="R64" t="s">
+        <v>616</v>
+      </c>
+      <c r="S64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U64" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="65">
@@ -4818,46 +6732,64 @@
         <v>4574.0</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E65" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F65" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G65" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H65" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I65" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J65" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K65" t="e">
         <v>#N/A</v>
       </c>
       <c r="L65" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M65" t="e">
         <v>#N/A</v>
       </c>
       <c r="N65" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="O65" t="s">
-        <v>568</v>
+        <v>574</v>
+      </c>
+      <c r="P65" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>610</v>
+      </c>
+      <c r="R65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T65" t="s">
+        <v>750</v>
+      </c>
+      <c r="U65" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="66">
@@ -4865,46 +6797,64 @@
         <v>4646.0</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F66" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G66" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H66" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I66" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J66" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K66" t="e">
         <v>#N/A</v>
       </c>
       <c r="L66" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M66" t="e">
         <v>#N/A</v>
       </c>
       <c r="N66" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="O66" t="s">
-        <v>569</v>
+        <v>575</v>
+      </c>
+      <c r="P66" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>589</v>
+      </c>
+      <c r="R66" t="s">
+        <v>698</v>
+      </c>
+      <c r="S66" t="s">
+        <v>733</v>
+      </c>
+      <c r="T66" t="s">
+        <v>615</v>
+      </c>
+      <c r="U66" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="67">
@@ -4912,46 +6862,64 @@
         <v>4742.0</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F67" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G67" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H67" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I67" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="J67" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K67" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L67" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M67" t="e">
         <v>#N/A</v>
       </c>
       <c r="N67" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="O67" t="s">
-        <v>570</v>
+        <v>576</v>
+      </c>
+      <c r="P67" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>656</v>
+      </c>
+      <c r="R67" t="s">
+        <v>699</v>
+      </c>
+      <c r="S67" t="s">
+        <v>594</v>
+      </c>
+      <c r="T67" t="s">
+        <v>745</v>
+      </c>
+      <c r="U67" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="68">
@@ -4959,46 +6927,64 @@
         <v>4946.0</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F68" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G68" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H68" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I68" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="J68" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="K68" t="e">
         <v>#N/A</v>
       </c>
       <c r="L68" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M68" t="e">
         <v>#N/A</v>
       </c>
       <c r="N68" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="O68" t="s">
-        <v>571</v>
+        <v>577</v>
+      </c>
+      <c r="P68" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>589</v>
+      </c>
+      <c r="R68" t="s">
+        <v>700</v>
+      </c>
+      <c r="S68" t="s">
+        <v>709</v>
+      </c>
+      <c r="T68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U68" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="69">
@@ -5006,46 +6992,64 @@
         <v>5044.0</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F69" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G69" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H69" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I69" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J69" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K69" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L69" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="M69" t="e">
         <v>#N/A</v>
       </c>
       <c r="N69" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="O69" t="s">
-        <v>572</v>
+        <v>578</v>
+      </c>
+      <c r="P69" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>657</v>
+      </c>
+      <c r="R69" t="s">
+        <v>660</v>
+      </c>
+      <c r="S69" t="s">
+        <v>734</v>
+      </c>
+      <c r="T69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U69" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="70">
@@ -5053,46 +7057,64 @@
         <v>5089.0</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E70" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F70" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G70" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H70" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I70" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="J70" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K70" t="e">
         <v>#N/A</v>
       </c>
       <c r="L70" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M70" t="e">
         <v>#N/A</v>
       </c>
       <c r="N70" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="O70" t="s">
-        <v>573</v>
+        <v>579</v>
+      </c>
+      <c r="P70" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>658</v>
+      </c>
+      <c r="R70" t="s">
+        <v>591</v>
+      </c>
+      <c r="S70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U70" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="71">
@@ -5100,46 +7122,64 @@
         <v>5136.0</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E71" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F71" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G71" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H71" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I71" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="J71" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K71" t="e">
         <v>#N/A</v>
       </c>
       <c r="L71" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M71" t="e">
         <v>#N/A</v>
       </c>
       <c r="N71" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="O71" t="s">
-        <v>574</v>
+        <v>580</v>
+      </c>
+      <c r="P71" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>142</v>
+      </c>
+      <c r="R71" t="s">
+        <v>701</v>
+      </c>
+      <c r="S71" t="s">
+        <v>735</v>
+      </c>
+      <c r="T71" t="s">
+        <v>656</v>
+      </c>
+      <c r="U71" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="72">
@@ -5147,46 +7187,64 @@
         <v>5219.0</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D72" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F72" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G72" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H72" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I72" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="J72" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K72" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L72" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M72" t="e">
         <v>#N/A</v>
       </c>
       <c r="N72" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="O72" t="s">
-        <v>575</v>
+        <v>581</v>
+      </c>
+      <c r="P72" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>133</v>
+      </c>
+      <c r="R72" t="s">
+        <v>702</v>
+      </c>
+      <c r="S72" t="s">
+        <v>736</v>
+      </c>
+      <c r="T72" t="s">
+        <v>745</v>
+      </c>
+      <c r="U72" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="73">
@@ -5194,46 +7252,64 @@
         <v>5359.0</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E73" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F73" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G73" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H73" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I73" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="J73" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K73" t="e">
         <v>#N/A</v>
       </c>
       <c r="L73" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M73" t="e">
         <v>#N/A</v>
       </c>
       <c r="N73" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="O73" t="s">
-        <v>576</v>
+        <v>582</v>
+      </c>
+      <c r="P73" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>659</v>
+      </c>
+      <c r="R73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S73" t="s">
+        <v>660</v>
+      </c>
+      <c r="T73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U73" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="74">
@@ -5241,46 +7317,64 @@
         <v>5667.0</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D74" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F74" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G74" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H74" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I74" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="J74" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K74" t="e">
         <v>#N/A</v>
       </c>
       <c r="L74" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M74" t="e">
         <v>#N/A</v>
       </c>
       <c r="N74" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="O74" t="s">
-        <v>577</v>
+        <v>583</v>
+      </c>
+      <c r="P74" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>660</v>
+      </c>
+      <c r="R74" t="s">
+        <v>590</v>
+      </c>
+      <c r="S74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U74" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="75">
@@ -5288,46 +7382,64 @@
         <v>6217.0</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D75" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F75" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G75" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H75" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I75" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="J75" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K75" t="e">
         <v>#N/A</v>
       </c>
       <c r="L75" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M75" t="e">
         <v>#N/A</v>
       </c>
       <c r="N75" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="O75" t="s">
-        <v>578</v>
+        <v>584</v>
+      </c>
+      <c r="P75" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>591</v>
+      </c>
+      <c r="R75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T75" t="s">
+        <v>593</v>
+      </c>
+      <c r="U75" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="76">
@@ -5335,46 +7447,64 @@
         <v>6330.0</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F76" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G76" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H76" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I76" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="J76" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K76" t="e">
         <v>#N/A</v>
       </c>
       <c r="L76" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M76" t="e">
         <v>#N/A</v>
       </c>
       <c r="N76" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="O76" t="s">
-        <v>579</v>
+        <v>585</v>
+      </c>
+      <c r="P76" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>589</v>
+      </c>
+      <c r="R76" t="s">
+        <v>703</v>
+      </c>
+      <c r="S76" t="s">
+        <v>737</v>
+      </c>
+      <c r="T76" t="s">
+        <v>749</v>
+      </c>
+      <c r="U76" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="77">
@@ -5382,46 +7512,64 @@
         <v>7286.0</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D77" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E77" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F77" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G77" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H77" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I77" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J77" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K77" t="e">
         <v>#N/A</v>
       </c>
       <c r="L77" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="M77" t="e">
         <v>#N/A</v>
       </c>
       <c r="N77" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="O77" t="s">
-        <v>580</v>
+        <v>586</v>
+      </c>
+      <c r="P77" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>589</v>
+      </c>
+      <c r="R77" t="s">
+        <v>704</v>
+      </c>
+      <c r="S77" t="s">
+        <v>660</v>
+      </c>
+      <c r="T77" t="s">
+        <v>593</v>
+      </c>
+      <c r="U77" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="78">
@@ -5429,46 +7577,64 @@
         <v>7667.0</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F78" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G78" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H78" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I78" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J78" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K78" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L78" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M78" t="e">
         <v>#N/A</v>
       </c>
       <c r="N78" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="O78" t="s">
-        <v>580</v>
+        <v>586</v>
+      </c>
+      <c r="P78" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>641</v>
+      </c>
+      <c r="R78" t="s">
+        <v>646</v>
+      </c>
+      <c r="S78" t="s">
+        <v>698</v>
+      </c>
+      <c r="T78" t="s">
+        <v>751</v>
+      </c>
+      <c r="U78" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="79">
@@ -5476,46 +7642,64 @@
         <v>7669.0</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D79" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E79" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F79" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G79" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H79" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="I79" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="J79" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K79" t="e">
         <v>#N/A</v>
       </c>
       <c r="L79" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M79" t="e">
         <v>#N/A</v>
       </c>
       <c r="N79" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="O79" t="s">
-        <v>580</v>
+        <v>586</v>
+      </c>
+      <c r="P79" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>661</v>
+      </c>
+      <c r="R79" t="s">
+        <v>599</v>
+      </c>
+      <c r="S79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T79" t="s">
+        <v>751</v>
+      </c>
+      <c r="U79" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="80">
@@ -5523,46 +7707,64 @@
         <v>7714.0</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D80" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E80" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F80" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G80" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H80" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="I80" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J80" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K80" t="e">
         <v>#N/A</v>
       </c>
       <c r="L80" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M80" t="e">
         <v>#N/A</v>
       </c>
       <c r="N80" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="O80" t="s">
-        <v>580</v>
+        <v>586</v>
+      </c>
+      <c r="P80" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>662</v>
+      </c>
+      <c r="R80" t="s">
+        <v>589</v>
+      </c>
+      <c r="S80" t="s">
+        <v>609</v>
+      </c>
+      <c r="T80" t="s">
+        <v>602</v>
+      </c>
+      <c r="U80" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="81">
@@ -5570,46 +7772,64 @@
         <v>7814.0</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F81" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G81" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H81" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="I81" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="J81" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K81" t="e">
         <v>#N/A</v>
       </c>
       <c r="L81" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M81" t="e">
         <v>#N/A</v>
       </c>
       <c r="N81" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="O81" t="s">
-        <v>580</v>
+        <v>586</v>
+      </c>
+      <c r="P81" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>589</v>
+      </c>
+      <c r="R81" t="s">
+        <v>609</v>
+      </c>
+      <c r="S81" t="s">
+        <v>616</v>
+      </c>
+      <c r="T81" t="s">
+        <v>745</v>
+      </c>
+      <c r="U81" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="82">
@@ -5617,46 +7837,64 @@
         <v>7854.0</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C82" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D82" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F82" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G82" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H82" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I82" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="J82" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K82" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L82" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M82" t="e">
         <v>#N/A</v>
       </c>
       <c r="N82" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="O82" t="s">
-        <v>580</v>
+        <v>586</v>
+      </c>
+      <c r="P82" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>119</v>
+      </c>
+      <c r="R82" t="s">
+        <v>593</v>
+      </c>
+      <c r="S82" t="s">
+        <v>612</v>
+      </c>
+      <c r="T82" t="s">
+        <v>593</v>
+      </c>
+      <c r="U82" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="83">
@@ -5664,46 +7902,64 @@
         <v>7858.0</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G83" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H83" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I83" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J83" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K83" t="e">
         <v>#N/A</v>
       </c>
       <c r="L83" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M83" t="e">
         <v>#N/A</v>
       </c>
       <c r="N83" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="O83" t="s">
-        <v>580</v>
+        <v>586</v>
+      </c>
+      <c r="P83" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>663</v>
+      </c>
+      <c r="R83" t="s">
+        <v>705</v>
+      </c>
+      <c r="S83" t="s">
+        <v>107</v>
+      </c>
+      <c r="T83" t="s">
+        <v>751</v>
+      </c>
+      <c r="U83" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="84">
@@ -5711,46 +7967,64 @@
         <v>7893.0</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E84" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F84" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G84" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H84" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="I84" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J84" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K84" t="e">
         <v>#N/A</v>
       </c>
       <c r="L84" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="M84" t="e">
         <v>#N/A</v>
       </c>
       <c r="N84" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="O84" t="s">
-        <v>580</v>
+        <v>586</v>
+      </c>
+      <c r="P84" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>664</v>
+      </c>
+      <c r="R84" t="s">
+        <v>706</v>
+      </c>
+      <c r="S84" t="s">
+        <v>593</v>
+      </c>
+      <c r="T84" t="s">
+        <v>593</v>
+      </c>
+      <c r="U84" t="s">
+        <v>834</v>
       </c>
     </row>
   </sheetData>

--- a/data/adc_2019_v4.xlsx
+++ b/data/adc_2019_v4.xlsx
@@ -485,7 +485,7 @@
     <t>glioma</t>
   </si>
   <si>
-    <t>skin</t>
+    <t>merkel</t>
   </si>
   <si>
     <t>neuroblastoma</t>
@@ -500,42 +500,45 @@
     <t>hemato</t>
   </si>
   <si>
-    <t>target-tumor interaction</t>
-  </si>
-  <si>
-    <t>target discovery</t>
+    <t>target-tumor</t>
+  </si>
+  <si>
+    <t>discovery</t>
   </si>
   <si>
     <t>payload</t>
   </si>
   <si>
+    <t>synergy</t>
+  </si>
+  <si>
+    <t>resistance</t>
+  </si>
+  <si>
+    <t>payload-linker</t>
+  </si>
+  <si>
+    <t>linker</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>phase 1</t>
+  </si>
+  <si>
+    <t>academia</t>
+  </si>
+  <si>
+    <t>pharma</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
     <t>combo</t>
   </si>
   <si>
-    <t>resistance to ADC</t>
-  </si>
-  <si>
-    <t>payload-linker</t>
-  </si>
-  <si>
-    <t>linker</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>phase 1</t>
-  </si>
-  <si>
-    <t>academia</t>
-  </si>
-  <si>
-    <t>pharma</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
     <t>clinical</t>
   </si>
   <si>
@@ -2019,9 +2022,6 @@
   </si>
   <si>
     <t>Photoimmunotherapy</t>
-  </si>
-  <si>
-    <t>resistance</t>
   </si>
   <si>
     <t>Chemotherapy</t>
@@ -2655,37 +2655,37 @@
         <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K2" t="e">
         <v>#N/A</v>
       </c>
       <c r="L2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M2" t="e">
         <v>#N/A</v>
       </c>
       <c r="N2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q2" t="s">
         <v>104</v>
       </c>
       <c r="R2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="S2" t="s">
         <v>707</v>
@@ -2720,37 +2720,37 @@
         <v>173</v>
       </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K3" t="e">
         <v>#N/A</v>
       </c>
       <c r="L3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M3" t="e">
         <v>#N/A</v>
       </c>
       <c r="N3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="S3" t="e">
         <v>#N/A</v>
@@ -2785,34 +2785,34 @@
         <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K4" t="e">
         <v>#N/A</v>
       </c>
       <c r="L4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M4" t="e">
         <v>#N/A</v>
       </c>
       <c r="N4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="R4" t="e">
         <v>#N/A</v>
@@ -2850,43 +2850,43 @@
         <v>173</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K5" t="e">
         <v>#N/A</v>
       </c>
       <c r="L5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M5" t="e">
         <v>#N/A</v>
       </c>
       <c r="N5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q5" t="s">
         <v>107</v>
       </c>
       <c r="R5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="S5" t="e">
         <v>#N/A</v>
       </c>
       <c r="T5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U5" t="s">
         <v>755</v>
@@ -2915,34 +2915,34 @@
         <v>173</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K6" t="e">
         <v>#N/A</v>
       </c>
       <c r="L6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M6" t="e">
         <v>#N/A</v>
       </c>
       <c r="N6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Q6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="R6" t="s">
         <v>108</v>
@@ -2951,7 +2951,7 @@
         <v>708</v>
       </c>
       <c r="T6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="U6" t="s">
         <v>756</v>
@@ -2980,43 +2980,43 @@
         <v>173</v>
       </c>
       <c r="H7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K7" t="e">
         <v>#N/A</v>
       </c>
       <c r="L7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M7" t="e">
         <v>#N/A</v>
       </c>
       <c r="N7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="R7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="S7" t="s">
         <v>709</v>
       </c>
       <c r="T7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="U7" t="s">
         <v>757</v>
@@ -3045,37 +3045,37 @@
         <v>173</v>
       </c>
       <c r="H8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K8" t="e">
         <v>#N/A</v>
       </c>
       <c r="L8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M8" t="e">
         <v>#N/A</v>
       </c>
       <c r="N8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="R8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="S8" t="s">
         <v>710</v>
@@ -3110,37 +3110,37 @@
         <v>173</v>
       </c>
       <c r="H9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K9" t="e">
         <v>#N/A</v>
       </c>
       <c r="L9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M9" t="e">
         <v>#N/A</v>
       </c>
       <c r="N9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Q9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R9" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="S9" t="e">
         <v>#N/A</v>
@@ -3175,31 +3175,31 @@
         <v>173</v>
       </c>
       <c r="H10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K10" t="e">
         <v>#N/A</v>
       </c>
       <c r="L10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M10" t="e">
         <v>#N/A</v>
       </c>
       <c r="N10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q10" t="s">
         <v>112</v>
@@ -3240,34 +3240,34 @@
         <v>173</v>
       </c>
       <c r="H11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M11" t="e">
         <v>#N/A</v>
       </c>
       <c r="N11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q11" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="R11" t="e">
         <v>#N/A</v>
@@ -3276,7 +3276,7 @@
         <v>#N/A</v>
       </c>
       <c r="T11" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="U11" t="s">
         <v>761</v>
@@ -3302,46 +3302,46 @@
         <v>172</v>
       </c>
       <c r="G12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K12" t="e">
         <v>#N/A</v>
       </c>
       <c r="L12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M12" t="e">
         <v>#N/A</v>
       </c>
       <c r="N12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q12" t="s">
         <v>114</v>
       </c>
       <c r="R12" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="S12" t="s">
         <v>711</v>
       </c>
       <c r="T12" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="U12" t="s">
         <v>762</v>
@@ -3370,37 +3370,37 @@
         <v>173</v>
       </c>
       <c r="H13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K13" t="e">
         <v>#N/A</v>
       </c>
       <c r="L13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M13" t="e">
         <v>#N/A</v>
       </c>
       <c r="N13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P13" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q13" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="R13" t="s">
-        <v>669</v>
+        <v>166</v>
       </c>
       <c r="S13" t="e">
         <v>#N/A</v>
@@ -3435,34 +3435,34 @@
         <v>173</v>
       </c>
       <c r="H14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K14" t="e">
         <v>#N/A</v>
       </c>
       <c r="L14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M14" t="e">
         <v>#N/A</v>
       </c>
       <c r="N14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O14" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P14" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Q14" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="R14" t="s">
         <v>670</v>
@@ -3471,7 +3471,7 @@
         <v>712</v>
       </c>
       <c r="T14" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U14" t="s">
         <v>764</v>
@@ -3500,40 +3500,40 @@
         <v>173</v>
       </c>
       <c r="H15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K15" t="e">
         <v>#N/A</v>
       </c>
       <c r="L15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M15" t="e">
         <v>#N/A</v>
       </c>
       <c r="N15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O15" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P15" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q15" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="R15" t="s">
         <v>671</v>
       </c>
       <c r="S15" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="T15" t="e">
         <v>#N/A</v>
@@ -3565,31 +3565,31 @@
         <v>173</v>
       </c>
       <c r="H16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M16" t="e">
         <v>#N/A</v>
       </c>
       <c r="N16" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O16" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P16" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q16" t="s">
         <v>114</v>
@@ -3598,10 +3598,10 @@
         <v>672</v>
       </c>
       <c r="S16" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="T16" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="U16" t="s">
         <v>766</v>
@@ -3630,34 +3630,34 @@
         <v>173</v>
       </c>
       <c r="H17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K17" t="e">
         <v>#N/A</v>
       </c>
       <c r="L17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M17" t="e">
         <v>#N/A</v>
       </c>
       <c r="N17" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O17" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P17" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Q17" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="R17" t="s">
         <v>673</v>
@@ -3695,40 +3695,40 @@
         <v>173</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K18" t="e">
         <v>#N/A</v>
       </c>
       <c r="L18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M18" t="e">
         <v>#N/A</v>
       </c>
       <c r="N18" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P18" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Q18" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="R18" t="s">
         <v>674</v>
       </c>
       <c r="S18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="T18" t="e">
         <v>#N/A</v>
@@ -3760,37 +3760,37 @@
         <v>173</v>
       </c>
       <c r="H19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K19" t="e">
         <v>#N/A</v>
       </c>
       <c r="L19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M19" t="e">
         <v>#N/A</v>
       </c>
       <c r="N19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O19" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P19" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q19" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="R19" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="S19" t="e">
         <v>#N/A</v>
@@ -3825,34 +3825,34 @@
         <v>173</v>
       </c>
       <c r="H20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M20" t="e">
         <v>#N/A</v>
       </c>
       <c r="N20" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O20" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P20" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q20" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="R20" t="s">
         <v>675</v>
@@ -3890,37 +3890,37 @@
         <v>173</v>
       </c>
       <c r="H21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K21" t="e">
         <v>#N/A</v>
       </c>
       <c r="L21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M21" t="e">
         <v>#N/A</v>
       </c>
       <c r="N21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P21" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q21" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="R21" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="S21" t="s">
         <v>713</v>
@@ -3955,40 +3955,40 @@
         <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K22" t="e">
         <v>#N/A</v>
       </c>
       <c r="L22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M22" t="e">
         <v>#N/A</v>
       </c>
       <c r="N22" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O22" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q22" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="R22" t="s">
         <v>676</v>
       </c>
       <c r="S22" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="T22" t="e">
         <v>#N/A</v>
@@ -4020,40 +4020,40 @@
         <v>173</v>
       </c>
       <c r="H23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K23" t="e">
         <v>#N/A</v>
       </c>
       <c r="L23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M23" t="e">
         <v>#N/A</v>
       </c>
       <c r="N23" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O23" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P23" t="s">
         <v>119</v>
       </c>
       <c r="Q23" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="R23" t="s">
         <v>677</v>
       </c>
       <c r="S23" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="T23" t="s">
         <v>742</v>
@@ -4085,40 +4085,40 @@
         <v>173</v>
       </c>
       <c r="H24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K24" t="e">
         <v>#N/A</v>
       </c>
       <c r="L24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M24" t="e">
         <v>#N/A</v>
       </c>
       <c r="N24" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O24" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P24" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q24" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="R24" t="s">
         <v>678</v>
       </c>
       <c r="S24" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="T24" t="s">
         <v>743</v>
@@ -4150,40 +4150,40 @@
         <v>173</v>
       </c>
       <c r="H25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K25" t="e">
         <v>#N/A</v>
       </c>
       <c r="L25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M25" t="e">
         <v>#N/A</v>
       </c>
       <c r="N25" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O25" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P25" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q25" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="R25" t="s">
         <v>679</v>
       </c>
       <c r="S25" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="T25" t="e">
         <v>#N/A</v>
@@ -4212,40 +4212,40 @@
         <v>172</v>
       </c>
       <c r="G26" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M26" t="e">
         <v>#N/A</v>
       </c>
       <c r="N26" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O26" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P26" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q26" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R26" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="S26" t="s">
         <v>714</v>
@@ -4280,31 +4280,31 @@
         <v>173</v>
       </c>
       <c r="H27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K27" t="e">
         <v>#N/A</v>
       </c>
       <c r="L27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M27" t="e">
         <v>#N/A</v>
       </c>
       <c r="N27" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O27" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P27" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q27" t="s">
         <v>107</v>
@@ -4316,7 +4316,7 @@
         <v>715</v>
       </c>
       <c r="T27" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U27" t="s">
         <v>777</v>
@@ -4345,37 +4345,37 @@
         <v>173</v>
       </c>
       <c r="H28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K28" t="e">
         <v>#N/A</v>
       </c>
       <c r="L28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M28" t="e">
         <v>#N/A</v>
       </c>
       <c r="N28" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O28" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P28" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q28" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="R28" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="S28" t="s">
         <v>716</v>
@@ -4410,37 +4410,37 @@
         <v>173</v>
       </c>
       <c r="H29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K29" t="e">
         <v>#N/A</v>
       </c>
       <c r="L29" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M29" t="e">
         <v>#N/A</v>
       </c>
       <c r="N29" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O29" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P29" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Q29" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="R29" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="S29" t="s">
         <v>717</v>
@@ -4475,34 +4475,34 @@
         <v>173</v>
       </c>
       <c r="H30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L30" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M30" t="e">
         <v>#N/A</v>
       </c>
       <c r="N30" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O30" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P30" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Q30" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="R30" t="s">
         <v>681</v>
@@ -4540,37 +4540,37 @@
         <v>173</v>
       </c>
       <c r="H31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M31" t="e">
         <v>#N/A</v>
       </c>
       <c r="N31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O31" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P31" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Q31" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="R31" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="S31" t="s">
         <v>719</v>
@@ -4605,34 +4605,34 @@
         <v>173</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L32" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M32" t="e">
         <v>#N/A</v>
       </c>
       <c r="N32" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O32" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P32" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q32" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="R32" t="e">
         <v>#N/A</v>
@@ -4641,7 +4641,7 @@
         <v>#N/A</v>
       </c>
       <c r="T32" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U32" t="s">
         <v>782</v>
@@ -4670,40 +4670,40 @@
         <v>173</v>
       </c>
       <c r="H33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K33" t="e">
         <v>#N/A</v>
       </c>
       <c r="L33" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M33" t="e">
         <v>#N/A</v>
       </c>
       <c r="N33" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O33" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P33" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q33" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="R33" t="s">
         <v>682</v>
       </c>
       <c r="S33" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="T33" t="s">
         <v>745</v>
@@ -4735,43 +4735,43 @@
         <v>173</v>
       </c>
       <c r="H34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K34" t="e">
         <v>#N/A</v>
       </c>
       <c r="L34" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M34" t="e">
         <v>#N/A</v>
       </c>
       <c r="N34" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O34" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P34" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Q34" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="R34" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="S34" t="e">
         <v>#N/A</v>
       </c>
       <c r="T34" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="U34" t="s">
         <v>784</v>
@@ -4800,34 +4800,34 @@
         <v>173</v>
       </c>
       <c r="H35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K35" t="e">
         <v>#N/A</v>
       </c>
       <c r="L35" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M35" t="e">
         <v>#N/A</v>
       </c>
       <c r="N35" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O35" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P35" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q35" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="R35" t="s">
         <v>126</v>
@@ -4865,31 +4865,31 @@
         <v>173</v>
       </c>
       <c r="H36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K36" t="e">
         <v>#N/A</v>
       </c>
       <c r="L36" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M36" t="e">
         <v>#N/A</v>
       </c>
       <c r="N36" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O36" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P36" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Q36" t="s">
         <v>107</v>
@@ -4898,10 +4898,10 @@
         <v>683</v>
       </c>
       <c r="S36" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T36" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="U36" t="s">
         <v>786</v>
@@ -4930,34 +4930,34 @@
         <v>173</v>
       </c>
       <c r="H37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K37" t="e">
         <v>#N/A</v>
       </c>
       <c r="L37" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M37" t="e">
         <v>#N/A</v>
       </c>
       <c r="N37" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O37" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P37" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Q37" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R37" t="s">
         <v>684</v>
@@ -4992,43 +4992,43 @@
         <v>171</v>
       </c>
       <c r="G38" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J38" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K38" t="e">
         <v>#N/A</v>
       </c>
       <c r="L38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M38" t="e">
         <v>#N/A</v>
       </c>
       <c r="N38" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O38" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P38" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Q38" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="R38" t="s">
         <v>685</v>
       </c>
       <c r="S38" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="T38" t="s">
         <v>747</v>
@@ -5060,34 +5060,34 @@
         <v>173</v>
       </c>
       <c r="H39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J39" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K39" t="e">
         <v>#N/A</v>
       </c>
       <c r="L39" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M39" t="e">
         <v>#N/A</v>
       </c>
       <c r="N39" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O39" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P39" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q39" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="R39" t="s">
         <v>686</v>
@@ -5125,34 +5125,34 @@
         <v>173</v>
       </c>
       <c r="H40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J40" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K40" t="e">
         <v>#N/A</v>
       </c>
       <c r="L40" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M40" t="e">
         <v>#N/A</v>
       </c>
       <c r="N40" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O40" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P40" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q40" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="R40" t="s">
         <v>107</v>
@@ -5161,7 +5161,7 @@
         <v>721</v>
       </c>
       <c r="T40" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U40" t="s">
         <v>790</v>
@@ -5190,37 +5190,37 @@
         <v>173</v>
       </c>
       <c r="H41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J41" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K41" t="e">
         <v>#N/A</v>
       </c>
       <c r="L41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M41" t="e">
         <v>#N/A</v>
       </c>
       <c r="N41" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O41" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P41" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q41" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="R41" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="S41" t="s">
         <v>722</v>
@@ -5252,37 +5252,37 @@
         <v>171</v>
       </c>
       <c r="G42" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K42" t="e">
         <v>#N/A</v>
       </c>
       <c r="L42" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M42" t="e">
         <v>#N/A</v>
       </c>
       <c r="N42" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O42" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P42" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Q42" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="R42" t="s">
         <v>107</v>
@@ -5291,7 +5291,7 @@
         <v>698</v>
       </c>
       <c r="T42" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U42" t="s">
         <v>792</v>
@@ -5320,37 +5320,37 @@
         <v>173</v>
       </c>
       <c r="H43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K43" t="e">
         <v>#N/A</v>
       </c>
       <c r="L43" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M43" t="e">
         <v>#N/A</v>
       </c>
       <c r="N43" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O43" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P43" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Q43" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="R43" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="S43" t="s">
         <v>723</v>
@@ -5385,31 +5385,31 @@
         <v>173</v>
       </c>
       <c r="H44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J44" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K44" t="e">
         <v>#N/A</v>
       </c>
       <c r="L44" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M44" t="e">
         <v>#N/A</v>
       </c>
       <c r="N44" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O44" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P44" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q44" t="s">
         <v>118</v>
@@ -5450,43 +5450,43 @@
         <v>173</v>
       </c>
       <c r="H45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J45" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K45" t="e">
         <v>#N/A</v>
       </c>
       <c r="L45" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M45" t="e">
         <v>#N/A</v>
       </c>
       <c r="N45" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O45" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P45" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q45" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="R45" t="s">
         <v>688</v>
       </c>
       <c r="S45" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="T45" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="U45" t="s">
         <v>795</v>
@@ -5512,34 +5512,34 @@
         <v>171</v>
       </c>
       <c r="G46" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J46" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K46" t="e">
         <v>#N/A</v>
       </c>
       <c r="L46" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M46" t="e">
         <v>#N/A</v>
       </c>
       <c r="N46" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O46" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P46" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q46" t="s">
         <v>107</v>
@@ -5551,7 +5551,7 @@
         <v>724</v>
       </c>
       <c r="T46" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U46" t="s">
         <v>796</v>
@@ -5580,34 +5580,34 @@
         <v>173</v>
       </c>
       <c r="H47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J47" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K47" t="e">
         <v>#N/A</v>
       </c>
       <c r="L47" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M47" t="e">
         <v>#N/A</v>
       </c>
       <c r="N47" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O47" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P47" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q47" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="R47" t="e">
         <v>#N/A</v>
@@ -5642,37 +5642,37 @@
         <v>171</v>
       </c>
       <c r="G48" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J48" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K48" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M48" t="e">
         <v>#N/A</v>
       </c>
       <c r="N48" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O48" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P48" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q48" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="R48" t="s">
         <v>690</v>
@@ -5681,7 +5681,7 @@
         <v>725</v>
       </c>
       <c r="T48" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="U48" t="s">
         <v>798</v>
@@ -5710,40 +5710,40 @@
         <v>173</v>
       </c>
       <c r="H49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J49" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K49" t="e">
         <v>#N/A</v>
       </c>
       <c r="L49" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M49" t="e">
         <v>#N/A</v>
       </c>
       <c r="N49" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O49" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P49" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>590</v>
+      </c>
+      <c r="R49" t="s">
         <v>591</v>
       </c>
-      <c r="Q49" t="s">
-        <v>589</v>
-      </c>
-      <c r="R49" t="s">
-        <v>590</v>
-      </c>
       <c r="S49" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="T49" t="e">
         <v>#N/A</v>
@@ -5775,37 +5775,37 @@
         <v>173</v>
       </c>
       <c r="H50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J50" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K50" t="e">
         <v>#N/A</v>
       </c>
       <c r="L50" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M50" t="e">
         <v>#N/A</v>
       </c>
       <c r="N50" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O50" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P50" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q50" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="R50" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="S50" t="s">
         <v>726</v>
@@ -5840,40 +5840,40 @@
         <v>173</v>
       </c>
       <c r="H51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J51" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K51" t="e">
         <v>#N/A</v>
       </c>
       <c r="L51" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M51" t="e">
         <v>#N/A</v>
       </c>
       <c r="N51" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O51" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P51" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q51" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="R51" t="s">
         <v>691</v>
       </c>
       <c r="S51" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="T51" t="e">
         <v>#N/A</v>
@@ -5905,37 +5905,37 @@
         <v>173</v>
       </c>
       <c r="H52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I52" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J52" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K52" t="e">
         <v>#N/A</v>
       </c>
       <c r="L52" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M52" t="e">
         <v>#N/A</v>
       </c>
       <c r="N52" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O52" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="P52" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q52" t="s">
         <v>133</v>
       </c>
       <c r="R52" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="S52" t="s">
         <v>727</v>
@@ -5970,43 +5970,43 @@
         <v>173</v>
       </c>
       <c r="H53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J53" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K53" t="e">
         <v>#N/A</v>
       </c>
       <c r="L53" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M53" t="e">
         <v>#N/A</v>
       </c>
       <c r="N53" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O53" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P53" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Q53" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R53" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="S53" t="s">
         <v>728</v>
       </c>
       <c r="T53" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="U53" t="s">
         <v>803</v>
@@ -6035,34 +6035,34 @@
         <v>173</v>
       </c>
       <c r="H54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I54" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K54" t="e">
         <v>#N/A</v>
       </c>
       <c r="L54" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M54" t="e">
         <v>#N/A</v>
       </c>
       <c r="N54" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O54" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P54" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q54" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="R54" t="s">
         <v>691</v>
@@ -6097,43 +6097,43 @@
         <v>172</v>
       </c>
       <c r="G55" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J55" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K55" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L55" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M55" t="e">
         <v>#N/A</v>
       </c>
       <c r="N55" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O55" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P55" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q55" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="R55" t="s">
         <v>692</v>
       </c>
       <c r="S55" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="T55" t="s">
         <v>738</v>
@@ -6165,31 +6165,31 @@
         <v>173</v>
       </c>
       <c r="H56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J56" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K56" t="e">
         <v>#N/A</v>
       </c>
       <c r="L56" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M56" t="e">
         <v>#N/A</v>
       </c>
       <c r="N56" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O56" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P56" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q56" t="e">
         <v>#N/A</v>
@@ -6230,40 +6230,40 @@
         <v>173</v>
       </c>
       <c r="H57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J57" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K57" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L57" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M57" t="e">
         <v>#N/A</v>
       </c>
       <c r="N57" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O57" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P57" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q57" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="R57" t="s">
         <v>693</v>
       </c>
       <c r="S57" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T57" t="e">
         <v>#N/A</v>
@@ -6295,34 +6295,34 @@
         <v>173</v>
       </c>
       <c r="H58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J58" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K58" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L58" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M58" t="e">
         <v>#N/A</v>
       </c>
       <c r="N58" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O58" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P58" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Q58" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R58" t="s">
         <v>694</v>
@@ -6360,40 +6360,40 @@
         <v>173</v>
       </c>
       <c r="H59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J59" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K59" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L59" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M59" t="e">
         <v>#N/A</v>
       </c>
       <c r="N59" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O59" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="P59" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q59" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="R59" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="S59" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="T59" t="s">
         <v>748</v>
@@ -6425,40 +6425,40 @@
         <v>173</v>
       </c>
       <c r="H60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J60" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K60" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L60" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M60" t="e">
         <v>#N/A</v>
       </c>
       <c r="N60" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O60" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P60" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q60" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="R60" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="S60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="T60" t="s">
         <v>749</v>
@@ -6490,34 +6490,34 @@
         <v>173</v>
       </c>
       <c r="H61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J61" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K61" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L61" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M61" t="e">
         <v>#N/A</v>
       </c>
       <c r="N61" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O61" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P61" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q61" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="R61" t="s">
         <v>695</v>
@@ -6555,34 +6555,34 @@
         <v>173</v>
       </c>
       <c r="H62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J62" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K62" t="e">
         <v>#N/A</v>
       </c>
       <c r="L62" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M62" t="e">
         <v>#N/A</v>
       </c>
       <c r="N62" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O62" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P62" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Q62" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R62" t="s">
         <v>696</v>
@@ -6620,34 +6620,34 @@
         <v>173</v>
       </c>
       <c r="H63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I63" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J63" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K63" t="e">
         <v>#N/A</v>
       </c>
       <c r="L63" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M63" t="e">
         <v>#N/A</v>
       </c>
       <c r="N63" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O63" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P63" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q63" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R63" t="s">
         <v>697</v>
@@ -6685,37 +6685,37 @@
         <v>173</v>
       </c>
       <c r="H64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J64" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K64" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L64" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M64" t="e">
         <v>#N/A</v>
       </c>
       <c r="N64" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O64" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P64" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q64" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="R64" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="S64" t="e">
         <v>#N/A</v>
@@ -6750,34 +6750,34 @@
         <v>173</v>
       </c>
       <c r="H65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J65" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K65" t="e">
         <v>#N/A</v>
       </c>
       <c r="L65" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M65" t="e">
         <v>#N/A</v>
       </c>
       <c r="N65" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O65" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P65" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Q65" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="R65" t="e">
         <v>#N/A</v>
@@ -6815,34 +6815,34 @@
         <v>173</v>
       </c>
       <c r="H66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J66" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K66" t="e">
         <v>#N/A</v>
       </c>
       <c r="L66" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M66" t="e">
         <v>#N/A</v>
       </c>
       <c r="N66" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O66" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P66" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q66" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R66" t="s">
         <v>698</v>
@@ -6851,7 +6851,7 @@
         <v>733</v>
       </c>
       <c r="T66" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="U66" t="s">
         <v>816</v>
@@ -6880,40 +6880,40 @@
         <v>173</v>
       </c>
       <c r="H67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J67" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L67" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M67" t="e">
         <v>#N/A</v>
       </c>
       <c r="N67" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O67" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P67" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Q67" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="R67" t="s">
         <v>699</v>
       </c>
       <c r="S67" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="T67" t="s">
         <v>745</v>
@@ -6942,37 +6942,37 @@
         <v>172</v>
       </c>
       <c r="G68" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J68" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K68" t="e">
         <v>#N/A</v>
       </c>
       <c r="L68" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M68" t="e">
         <v>#N/A</v>
       </c>
       <c r="N68" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O68" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P68" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q68" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R68" t="s">
         <v>700</v>
@@ -7010,37 +7010,37 @@
         <v>173</v>
       </c>
       <c r="H69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J69" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K69" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L69" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M69" t="e">
         <v>#N/A</v>
       </c>
       <c r="N69" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O69" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P69" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Q69" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="R69" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="S69" t="s">
         <v>734</v>
@@ -7075,37 +7075,37 @@
         <v>173</v>
       </c>
       <c r="H70" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K70" t="e">
         <v>#N/A</v>
       </c>
       <c r="L70" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M70" t="e">
         <v>#N/A</v>
       </c>
       <c r="N70" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O70" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P70" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q70" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="R70" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="S70" t="e">
         <v>#N/A</v>
@@ -7140,31 +7140,31 @@
         <v>173</v>
       </c>
       <c r="H71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J71" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K71" t="e">
         <v>#N/A</v>
       </c>
       <c r="L71" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M71" t="e">
         <v>#N/A</v>
       </c>
       <c r="N71" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O71" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P71" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q71" t="s">
         <v>142</v>
@@ -7176,7 +7176,7 @@
         <v>735</v>
       </c>
       <c r="T71" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="U71" t="s">
         <v>821</v>
@@ -7205,31 +7205,31 @@
         <v>173</v>
       </c>
       <c r="H72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J72" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K72" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L72" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M72" t="e">
         <v>#N/A</v>
       </c>
       <c r="N72" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O72" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P72" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q72" t="s">
         <v>133</v>
@@ -7270,40 +7270,40 @@
         <v>173</v>
       </c>
       <c r="H73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I73" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J73" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K73" t="e">
         <v>#N/A</v>
       </c>
       <c r="L73" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M73" t="e">
         <v>#N/A</v>
       </c>
       <c r="N73" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O73" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P73" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q73" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="R73" t="e">
         <v>#N/A</v>
       </c>
       <c r="S73" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="T73" t="e">
         <v>#N/A</v>
@@ -7335,37 +7335,37 @@
         <v>173</v>
       </c>
       <c r="H74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J74" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K74" t="e">
         <v>#N/A</v>
       </c>
       <c r="L74" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M74" t="e">
         <v>#N/A</v>
       </c>
       <c r="N74" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O74" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P74" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q74" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="R74" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="S74" t="e">
         <v>#N/A</v>
@@ -7400,34 +7400,34 @@
         <v>173</v>
       </c>
       <c r="H75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J75" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K75" t="e">
         <v>#N/A</v>
       </c>
       <c r="L75" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M75" t="e">
         <v>#N/A</v>
       </c>
       <c r="N75" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O75" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P75" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Q75" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="R75" t="e">
         <v>#N/A</v>
@@ -7436,7 +7436,7 @@
         <v>#N/A</v>
       </c>
       <c r="T75" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U75" t="s">
         <v>825</v>
@@ -7465,34 +7465,34 @@
         <v>173</v>
       </c>
       <c r="H76" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I76" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J76" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K76" t="e">
         <v>#N/A</v>
       </c>
       <c r="L76" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M76" t="e">
         <v>#N/A</v>
       </c>
       <c r="N76" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O76" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P76" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Q76" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R76" t="s">
         <v>703</v>
@@ -7530,43 +7530,43 @@
         <v>173</v>
       </c>
       <c r="H77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J77" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K77" t="e">
         <v>#N/A</v>
       </c>
       <c r="L77" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M77" t="e">
         <v>#N/A</v>
       </c>
       <c r="N77" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O77" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P77" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Q77" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R77" t="s">
         <v>704</v>
       </c>
       <c r="S77" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="T77" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U77" t="s">
         <v>827</v>
@@ -7595,37 +7595,37 @@
         <v>173</v>
       </c>
       <c r="H78" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J78" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K78" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L78" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M78" t="e">
         <v>#N/A</v>
       </c>
       <c r="N78" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O78" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P78" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q78" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="R78" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="S78" t="s">
         <v>698</v>
@@ -7660,37 +7660,37 @@
         <v>173</v>
       </c>
       <c r="H79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I79" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J79" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K79" t="e">
         <v>#N/A</v>
       </c>
       <c r="L79" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M79" t="e">
         <v>#N/A</v>
       </c>
       <c r="N79" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O79" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P79" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q79" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="R79" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="S79" t="e">
         <v>#N/A</v>
@@ -7725,43 +7725,43 @@
         <v>173</v>
       </c>
       <c r="H80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I80" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J80" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K80" t="e">
         <v>#N/A</v>
       </c>
       <c r="L80" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M80" t="e">
         <v>#N/A</v>
       </c>
       <c r="N80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O80" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P80" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Q80" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="R80" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="S80" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="T80" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="U80" t="s">
         <v>830</v>
@@ -7790,40 +7790,40 @@
         <v>173</v>
       </c>
       <c r="H81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J81" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K81" t="e">
         <v>#N/A</v>
       </c>
       <c r="L81" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M81" t="e">
         <v>#N/A</v>
       </c>
       <c r="N81" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O81" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P81" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Q81" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R81" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="S81" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="T81" t="s">
         <v>745</v>
@@ -7852,46 +7852,46 @@
         <v>172</v>
       </c>
       <c r="G82" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J82" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K82" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L82" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M82" t="e">
         <v>#N/A</v>
       </c>
       <c r="N82" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O82" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P82" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q82" t="s">
         <v>119</v>
       </c>
       <c r="R82" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="S82" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="T82" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U82" t="s">
         <v>832</v>
@@ -7920,34 +7920,34 @@
         <v>173</v>
       </c>
       <c r="H83" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J83" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K83" t="e">
         <v>#N/A</v>
       </c>
       <c r="L83" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M83" t="e">
         <v>#N/A</v>
       </c>
       <c r="N83" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O83" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P83" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q83" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="R83" t="s">
         <v>705</v>
@@ -7985,43 +7985,43 @@
         <v>173</v>
       </c>
       <c r="H84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I84" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J84" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K84" t="e">
         <v>#N/A</v>
       </c>
       <c r="L84" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M84" t="e">
         <v>#N/A</v>
       </c>
       <c r="N84" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O84" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P84" t="s">
         <v>107</v>
       </c>
       <c r="Q84" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="R84" t="s">
         <v>706</v>
       </c>
       <c r="S84" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="T84" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U84" t="s">
         <v>834</v>
